--- a/RUDN/Correlations/deep.Corr_in_IDA.nan.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_IDA.nan.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IDA</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IDA</t>
+  </si>
   <si>
     <t>IC.REG.DURS.FE:IDA</t>
   </si>
@@ -22,12 +28,129 @@
     <t>IC.REG.DURS.MA:IDA</t>
   </si>
   <si>
+    <t>IC.REG.PROC.FE:IDA</t>
+  </si>
+  <si>
     <t>IC.REG.PROC.MA:IDA</t>
   </si>
   <si>
+    <t>IT.CEL.SETS.P2:IDA</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IDA</t>
+  </si>
+  <si>
+    <t>NE.GDI.TOTL.ZS:IDA</t>
+  </si>
+  <si>
+    <t>NE.TRD.GNFS.ZS:IDA</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IDA</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IDA</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IDA</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IDA</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IDA</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IDA</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IDA</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IDA</t>
+  </si>
+  <si>
     <t>SH.DYN.AIDS.FE.ZS:IDA</t>
   </si>
   <si>
+    <t>SH.DYN.MORT:IDA</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:IDA</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:IDA</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IDA</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IDA</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IDA</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IDA</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IDA</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IDA</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IDA</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IDA</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IDA</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IDA</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.TO.ZS:IDA</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IDA</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IDA</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO.ZS:IDA</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IDA</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IDA</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IDA</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IDA</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IDA</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.FE.ZS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>IC.REG.COST.PC.MA.ZS:IDA:p-value</t>
+  </si>
+  <si>
     <t>IC.REG.DURS.FE:IDA:cor-value</t>
   </si>
   <si>
@@ -50,6 +173,216 @@
   </si>
   <si>
     <t>IC.REG.PROC.MA:IDA:p-value</t>
+  </si>
+  <si>
+    <t>IT.CEL.SETS.P2:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>IT.CEL.SETS.P2:IDA:p-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:IDA:p-value</t>
+  </si>
+  <si>
+    <t>NE.GDI.TOTL.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>NE.GDI.TOTL.ZS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CD:IDA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.KD.ZG:IDA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GDP.PCAP.CD:IDA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.ATLS.CD:IDA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.CD:IDA:p-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>NY.GNP.PCAP.PP.CD:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.ANM.ALLW.ZS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.AIDS.FE.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.AIDS.FE.ZS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.DYN.MORT:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.FE.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.FE.ZS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.MA.ZS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.HIV.ARTC.ZS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.IDPT:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SH.IMM.MEAS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SL.EMP.1524.SP.MA.ZS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SL.GDP.PCAP.EM.KD:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.ACTI.1524.MA.ZS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.FE.IN:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SL.TLF.TOTL.IN:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SL.UEM.1524.FM.ZS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.DYN.IMRT.IN:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.FE.IN:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.TO.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.0014.TO.ZS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.FE.IN:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.MA.IN:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO.ZS:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO.ZS:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.1564.TO:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.65UP.FE.IN:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.DPND:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL.FE.IN:IDA:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IDA:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:IDA:p-value</t>
   </si>
 </sst>
 </file>
@@ -407,13 +740,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:AP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:42">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,105 +759,5692 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C2">
+        <v>0.9999999996375275</v>
+      </c>
+      <c r="D2">
+        <v>0.95751167167992</v>
+      </c>
+      <c r="E2">
+        <v>0.9576718111396166</v>
+      </c>
+      <c r="F2">
+        <v>0.9714598230796956</v>
+      </c>
+      <c r="G2">
+        <v>0.9728090744140647</v>
+      </c>
+      <c r="H2">
+        <v>-0.9720362704370169</v>
+      </c>
+      <c r="I2">
+        <v>-0.8525975429132787</v>
+      </c>
+      <c r="J2">
+        <v>-0.9321606395711631</v>
+      </c>
+      <c r="K2">
+        <v>0.6430055100965231</v>
+      </c>
+      <c r="L2">
+        <v>-0.9637149389895039</v>
+      </c>
+      <c r="M2">
+        <v>0.6217182393753509</v>
+      </c>
+      <c r="N2">
+        <v>-0.9711722562226287</v>
+      </c>
+      <c r="O2">
+        <v>-0.9517422008791906</v>
+      </c>
+      <c r="P2">
+        <v>-0.9662413995336416</v>
+      </c>
+      <c r="Q2">
+        <v>-0.9696752572905012</v>
+      </c>
+      <c r="R2">
+        <v>-0.9767869493584487</v>
+      </c>
+      <c r="S2">
+        <v>0.981950976550295</v>
+      </c>
+      <c r="T2">
+        <v>-0.9423414600334284</v>
+      </c>
+      <c r="U2">
+        <v>0.9823963883179347</v>
+      </c>
+      <c r="W2">
+        <v>-0.9119964329800124</v>
+      </c>
+      <c r="X2">
+        <v>-0.9407734605913418</v>
+      </c>
+      <c r="Y2">
+        <v>-0.9272914017071071</v>
+      </c>
+      <c r="Z2">
+        <v>0.9801993995257666</v>
+      </c>
+      <c r="AA2">
+        <v>-0.9856487182464533</v>
+      </c>
+      <c r="AB2">
+        <v>0.9892084279523924</v>
+      </c>
+      <c r="AC2">
+        <v>-0.9514124480167615</v>
+      </c>
+      <c r="AD2">
+        <v>-0.9513751615123217</v>
+      </c>
+      <c r="AE2">
+        <v>-0.531431237379466</v>
+      </c>
+      <c r="AF2">
+        <v>0.9820278942105483</v>
+      </c>
+      <c r="AG2">
+        <v>-0.9623920839921134</v>
+      </c>
+      <c r="AH2">
+        <v>0.9608882702423901</v>
+      </c>
+      <c r="AI2">
+        <v>-0.9570392146574702</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.9532857573141958</v>
+      </c>
+      <c r="AK2">
+        <v>-0.9612545720971692</v>
+      </c>
+      <c r="AL2">
+        <v>-0.955200238397681</v>
+      </c>
+      <c r="AM2">
+        <v>-0.9504306338635109</v>
+      </c>
+      <c r="AO2">
+        <v>-0.9584872715312484</v>
+      </c>
+      <c r="AP2">
+        <v>-0.9574803241882414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>3.274480063119691e-56</v>
+      </c>
+      <c r="D3">
+        <v>7.748822260304427e-08</v>
+      </c>
+      <c r="E3">
+        <v>7.577876108212916e-08</v>
+      </c>
+      <c r="F3">
+        <v>7.3370540880423e-09</v>
+      </c>
+      <c r="G3">
+        <v>5.502945794809073e-09</v>
+      </c>
+      <c r="H3">
+        <v>6.499722075462668e-09</v>
+      </c>
+      <c r="I3">
+        <v>0.0001069633445280316</v>
+      </c>
+      <c r="J3">
+        <v>1.214492035588902e-06</v>
+      </c>
+      <c r="K3">
+        <v>0.01311985772798413</v>
+      </c>
+      <c r="L3">
+        <v>3.046831723468452e-08</v>
+      </c>
+      <c r="M3">
+        <v>0.01761133717204667</v>
+      </c>
+      <c r="N3">
+        <v>7.787086717952165e-09</v>
+      </c>
+      <c r="O3">
+        <v>1.642693166832065e-07</v>
+      </c>
+      <c r="P3">
+        <v>1.986881040447247e-08</v>
+      </c>
+      <c r="Q3">
+        <v>1.051681742663669e-08</v>
+      </c>
+      <c r="R3">
+        <v>2.148738188994297e-09</v>
+      </c>
+      <c r="S3">
+        <v>4.801284884521814e-10</v>
+      </c>
+      <c r="T3">
+        <v>4.681653477141949e-07</v>
+      </c>
+      <c r="U3">
+        <v>4.136788662364307e-10</v>
+      </c>
+      <c r="W3">
+        <v>5.535417471514838e-06</v>
+      </c>
+      <c r="X3">
+        <v>5.48052493953862e-07</v>
+      </c>
+      <c r="Y3">
+        <v>1.821206652683218e-06</v>
+      </c>
+      <c r="Z3">
+        <v>8.338023531640327e-10</v>
+      </c>
+      <c r="AA3">
+        <v>1.223045521498931e-10</v>
+      </c>
+      <c r="AB3">
+        <v>2.228106634078203e-11</v>
+      </c>
+      <c r="AC3">
+        <v>1.709970741109679e-07</v>
+      </c>
+      <c r="AD3">
+        <v>1.717719423930139e-07</v>
+      </c>
+      <c r="AE3">
+        <v>0.05050371887128969</v>
+      </c>
+      <c r="AF3">
+        <v>4.680595492000604e-10</v>
+      </c>
+      <c r="AG3">
+        <v>3.76623788044731e-08</v>
+      </c>
+      <c r="AH3">
+        <v>4.749560402048693e-08</v>
+      </c>
+      <c r="AI3">
+        <v>8.271874429707143e-08</v>
+      </c>
+      <c r="AJ3">
+        <v>1.356160139958104e-07</v>
+      </c>
+      <c r="AK3">
+        <v>4.492418618509536e-08</v>
+      </c>
+      <c r="AL3">
+        <v>1.059457461662792e-07</v>
+      </c>
+      <c r="AM3">
+        <v>1.9239205840193e-07</v>
+      </c>
+      <c r="AO3">
+        <v>6.755050909286296e-08</v>
+      </c>
+      <c r="AP3">
+        <v>7.782655983002553e-08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>0.9575110887067836</v>
+      </c>
+      <c r="E4">
+        <v>0.957671228125637</v>
+      </c>
+      <c r="F4">
+        <v>0.9714601441827073</v>
+      </c>
+      <c r="G4">
+        <v>0.9728093903295953</v>
+      </c>
+      <c r="H4">
+        <v>-0.9720368867852339</v>
+      </c>
+      <c r="I4">
+        <v>-0.8525956995460594</v>
+      </c>
+      <c r="J4">
+        <v>-0.9321590907862304</v>
+      </c>
+      <c r="K4">
+        <v>0.6430058291502326</v>
+      </c>
+      <c r="L4">
+        <v>-0.9637146732383444</v>
+      </c>
+      <c r="M4">
+        <v>0.6217173153837553</v>
+      </c>
+      <c r="N4">
+        <v>-0.9711722832898896</v>
+      </c>
+      <c r="O4">
+        <v>-0.9517418184110173</v>
+      </c>
+      <c r="P4">
+        <v>-0.9662412889559827</v>
+      </c>
+      <c r="Q4">
+        <v>-0.969673799644549</v>
+      </c>
+      <c r="R4">
+        <v>-0.9767839625782743</v>
+      </c>
+      <c r="S4">
+        <v>0.9819518848831512</v>
+      </c>
+      <c r="T4">
+        <v>-0.9423400537906517</v>
+      </c>
+      <c r="U4">
+        <v>0.9823950692704504</v>
+      </c>
+      <c r="W4">
+        <v>-0.9119955853226244</v>
+      </c>
+      <c r="X4">
+        <v>-0.9407719496501846</v>
+      </c>
+      <c r="Y4">
+        <v>-0.9272912258286696</v>
+      </c>
+      <c r="Z4">
+        <v>0.980201026815114</v>
+      </c>
+      <c r="AA4">
+        <v>-0.9856472905937378</v>
+      </c>
+      <c r="AB4">
+        <v>0.9892105999155342</v>
+      </c>
+      <c r="AC4">
+        <v>-0.9514110096894253</v>
+      </c>
+      <c r="AD4">
+        <v>-0.9513737029051673</v>
+      </c>
+      <c r="AE4">
+        <v>-0.5314185126247766</v>
+      </c>
+      <c r="AF4">
+        <v>0.9820266304131441</v>
+      </c>
+      <c r="AG4">
+        <v>-0.9623909629562382</v>
+      </c>
+      <c r="AH4">
+        <v>0.9608864386104022</v>
+      </c>
+      <c r="AI4">
+        <v>-0.9570379108169206</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.9532843486284019</v>
+      </c>
+      <c r="AK4">
+        <v>-0.9612526573497072</v>
+      </c>
+      <c r="AL4">
+        <v>-0.955198882522031</v>
+      </c>
+      <c r="AM4">
+        <v>-0.9504294194076767</v>
+      </c>
+      <c r="AO4">
+        <v>-0.9584860285883839</v>
+      </c>
+      <c r="AP4">
+        <v>-0.9574790489143772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>7.74945035685565e-08</v>
+      </c>
+      <c r="E5">
+        <v>7.578492752535458e-08</v>
+      </c>
+      <c r="F5">
+        <v>7.336563915963923e-09</v>
+      </c>
+      <c r="G5">
+        <v>5.502565958002132e-09</v>
+      </c>
+      <c r="H5">
+        <v>6.498871239611951e-09</v>
+      </c>
+      <c r="I5">
+        <v>0.000106970922389476</v>
+      </c>
+      <c r="J5">
+        <v>1.214654266340289e-06</v>
+      </c>
+      <c r="K5">
+        <v>0.0131197977683502</v>
+      </c>
+      <c r="L5">
+        <v>3.046963855390003e-08</v>
+      </c>
+      <c r="M5">
+        <v>0.01761155450087483</v>
+      </c>
+      <c r="N5">
+        <v>7.787043305658711e-09</v>
+      </c>
+      <c r="O5">
+        <v>1.642769911247534e-07</v>
+      </c>
+      <c r="P5">
+        <v>1.986919612300375e-08</v>
+      </c>
+      <c r="Q5">
+        <v>1.051981766304464e-08</v>
+      </c>
+      <c r="R5">
+        <v>2.150383678095432e-09</v>
+      </c>
+      <c r="S5">
+        <v>4.799844702993579e-10</v>
+      </c>
+      <c r="T5">
+        <v>4.682324172615242e-07</v>
+      </c>
+      <c r="U5">
+        <v>4.138637061345943e-10</v>
+      </c>
+      <c r="W5">
+        <v>5.535726971308761e-06</v>
+      </c>
+      <c r="X5">
+        <v>5.481345713718499e-07</v>
+      </c>
+      <c r="Y5">
+        <v>1.821232378796381e-06</v>
+      </c>
+      <c r="Z5">
+        <v>8.333942160018265e-10</v>
+      </c>
+      <c r="AA5">
+        <v>1.223771942893487e-10</v>
+      </c>
+      <c r="AB5">
+        <v>2.225427753124102e-11</v>
+      </c>
+      <c r="AC5">
+        <v>1.710269109486041e-07</v>
+      </c>
+      <c r="AD5">
+        <v>1.718023133228547e-07</v>
+      </c>
+      <c r="AE5">
+        <v>0.05051027303555817</v>
+      </c>
+      <c r="AF5">
+        <v>4.682557903265729e-10</v>
+      </c>
+      <c r="AG5">
+        <v>3.766902341885979e-08</v>
+      </c>
+      <c r="AH5">
+        <v>4.75087617417332e-08</v>
+      </c>
+      <c r="AI5">
+        <v>8.273357318833471e-08</v>
+      </c>
+      <c r="AJ5">
+        <v>1.356401360807231e-07</v>
+      </c>
+      <c r="AK5">
+        <v>4.493732116826775e-08</v>
+      </c>
+      <c r="AL5">
+        <v>1.05964673086877e-07</v>
+      </c>
+      <c r="AM5">
+        <v>1.924198312420446e-07</v>
+      </c>
+      <c r="AO5">
+        <v>6.756246235420238e-08</v>
+      </c>
+      <c r="AP5">
+        <v>7.784034986397364e-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6">
         <v>0.9999998005748947</v>
       </c>
-      <c r="E2">
+      <c r="H6">
+        <v>-0.9961053328470006</v>
+      </c>
+      <c r="I6">
+        <v>-0.9413947171171549</v>
+      </c>
+      <c r="J6">
+        <v>-0.9741335346249246</v>
+      </c>
+      <c r="K6">
+        <v>0.7305194651418629</v>
+      </c>
+      <c r="T6">
         <v>-0.9817819882985515</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="U6">
+        <v>0.9869844090512915</v>
+      </c>
+      <c r="W6">
+        <v>-0.9785098074605857</v>
+      </c>
+      <c r="AA6">
+        <v>-0.9216354937430504</v>
+      </c>
+      <c r="AF6">
+        <v>0.9867819137351209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7">
         <v>9.081776129574897e-40</v>
       </c>
-      <c r="E3">
+      <c r="H7">
+        <v>4.996740675819399e-14</v>
+      </c>
+      <c r="I7">
+        <v>5.151532287566382e-07</v>
+      </c>
+      <c r="J7">
+        <v>4.089962769006907e-09</v>
+      </c>
+      <c r="K7">
+        <v>0.00300430713773713</v>
+      </c>
+      <c r="T7">
         <v>5.075545058968618e-10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
+      <c r="U7">
+        <v>6.825454445690785e-11</v>
+      </c>
+      <c r="W7">
+        <v>1.357843008002664e-09</v>
+      </c>
+      <c r="AA7">
+        <v>2.819273172650784e-06</v>
+      </c>
+      <c r="AF7">
+        <v>7.484629249150983e-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>-0.9961301222522171</v>
+      </c>
+      <c r="I8">
+        <v>-0.9412989434450957</v>
+      </c>
+      <c r="J8">
+        <v>-0.974114753895473</v>
+      </c>
+      <c r="K8">
+        <v>0.7304175897525585</v>
+      </c>
+      <c r="T8">
         <v>-0.9817774889262876</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
+      <c r="U8">
+        <v>0.9870533914301516</v>
+      </c>
+      <c r="W8">
+        <v>-0.9784555301267764</v>
+      </c>
+      <c r="AA8">
+        <v>-0.9218461195472895</v>
+      </c>
+      <c r="AF8">
+        <v>0.9868508027072485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>4.809182988755405e-14</v>
+      </c>
+      <c r="I9">
+        <v>5.201158758408255e-07</v>
+      </c>
+      <c r="J9">
+        <v>4.107645600851683e-09</v>
+      </c>
+      <c r="K9">
+        <v>0.003010394491326718</v>
+      </c>
+      <c r="T9">
         <v>5.083021504139132e-10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+      <c r="U9">
+        <v>6.612243784221187e-11</v>
+      </c>
+      <c r="W9">
+        <v>1.378388535280607e-09</v>
+      </c>
+      <c r="AA9">
+        <v>2.77540413562313e-06</v>
+      </c>
+      <c r="AF9">
+        <v>7.254687252792724e-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
         <v>0.9945876799665622</v>
       </c>
-      <c r="C6">
+      <c r="E10">
         <v>0.9946198976512309</v>
       </c>
-      <c r="D6">
+      <c r="G10">
         <v>0.9999776656531113</v>
       </c>
-      <c r="E6">
+      <c r="H10">
+        <v>-0.9956616851938438</v>
+      </c>
+      <c r="I10">
+        <v>-0.933791664496649</v>
+      </c>
+      <c r="J10">
+        <v>-0.9581593910981899</v>
+      </c>
+      <c r="K10">
+        <v>0.7444981351564474</v>
+      </c>
+      <c r="T10">
         <v>-0.9824147961266112</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="U10">
+        <v>0.9888240790922885</v>
+      </c>
+      <c r="W10">
+        <v>-0.9744154989188238</v>
+      </c>
+      <c r="AA10">
+        <v>-0.931853406829416</v>
+      </c>
+      <c r="AF10">
+        <v>0.9887008526510558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
         <v>3.587158572404769e-13</v>
       </c>
-      <c r="C7">
+      <c r="E11">
         <v>3.461170828509265e-13</v>
       </c>
-      <c r="D7">
+      <c r="G11">
         <v>1.791887562467153e-27</v>
       </c>
-      <c r="E7">
+      <c r="H11">
+        <v>9.536248534215066e-14</v>
+      </c>
+      <c r="I11">
+        <v>1.053268255481468e-06</v>
+      </c>
+      <c r="J11">
+        <v>7.076503525863571e-08</v>
+      </c>
+      <c r="K11">
+        <v>0.002256431204831145</v>
+      </c>
+      <c r="T11">
         <v>4.111065071988888e-10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="U11">
+        <v>2.746428934406293e-11</v>
+      </c>
+      <c r="W11">
+        <v>3.831983470506486e-09</v>
+      </c>
+      <c r="AA11">
+        <v>1.247025573618907e-06</v>
+      </c>
+      <c r="AF11">
+        <v>2.932427575542233e-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
         <v>0.994266502752746</v>
       </c>
-      <c r="C8">
+      <c r="E12">
         <v>0.9943029249886253</v>
       </c>
-      <c r="E8">
+      <c r="H12">
+        <v>-0.9955892271004663</v>
+      </c>
+      <c r="I12">
+        <v>-0.932452932054161</v>
+      </c>
+      <c r="J12">
+        <v>-0.957700834546656</v>
+      </c>
+      <c r="K12">
+        <v>0.743047902406236</v>
+      </c>
+      <c r="T12">
         <v>-0.9820196860734279</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="U12">
+        <v>0.989227813651455</v>
+      </c>
+      <c r="W12">
+        <v>-0.9735005192604943</v>
+      </c>
+      <c r="AA12">
+        <v>-0.9337901868319912</v>
+      </c>
+      <c r="AF12">
+        <v>0.9891031983358625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
         <v>5.066031194723176e-13</v>
       </c>
-      <c r="C9">
+      <c r="E13">
         <v>4.876360534747296e-13</v>
       </c>
-      <c r="E9">
+      <c r="H13">
+        <v>1.053105353108603e-13</v>
+      </c>
+      <c r="I13">
+        <v>1.184193394267029e-06</v>
+      </c>
+      <c r="J13">
+        <v>7.547230997310127e-08</v>
+      </c>
+      <c r="K13">
+        <v>0.002326336911510966</v>
+      </c>
+      <c r="T13">
         <v>4.693353207362696e-10</v>
+      </c>
+      <c r="U13">
+        <v>2.204291105111449e-11</v>
+      </c>
+      <c r="W13">
+        <v>4.721998007178748e-09</v>
+      </c>
+      <c r="AA13">
+        <v>1.053405882697804e-06</v>
+      </c>
+      <c r="AF13">
+        <v>2.36115019165571e-11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14">
+        <v>-0.7179414983679879</v>
+      </c>
+      <c r="U14">
+        <v>-0.9931461200361098</v>
+      </c>
+      <c r="AF14">
+        <v>-0.9930986578343637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15">
+        <v>0.003832787935102865</v>
+      </c>
+      <c r="U15">
+        <v>1.474768754740135e-12</v>
+      </c>
+      <c r="AF15">
+        <v>1.536958121898173e-12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>0.9321675188246007</v>
+      </c>
+      <c r="K16">
+        <v>-0.831841834546786</v>
+      </c>
+      <c r="U16">
+        <v>-0.9269055947130272</v>
+      </c>
+      <c r="AF16">
+        <v>-0.9282605472861599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <v>1.213771669560117e-06</v>
+      </c>
+      <c r="K17">
+        <v>0.0002248715056901821</v>
+      </c>
+      <c r="U17">
+        <v>1.878364320143491e-06</v>
+      </c>
+      <c r="AF17">
+        <v>1.683918611302961e-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18">
+        <v>0.9706670402762451</v>
+      </c>
+      <c r="I18">
+        <v>0.8816790310964505</v>
+      </c>
+      <c r="K18">
+        <v>-0.6112164837547527</v>
+      </c>
+      <c r="U18">
+        <v>-0.9606993921617349</v>
+      </c>
+      <c r="AF18">
+        <v>-0.9603886184297671</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19">
+        <v>8.633180316282819e-09</v>
+      </c>
+      <c r="I19">
+        <v>3.055764177074327e-05</v>
+      </c>
+      <c r="K19">
+        <v>0.02021585396821855</v>
+      </c>
+      <c r="U19">
+        <v>4.886842687223271e-08</v>
+      </c>
+      <c r="AF19">
+        <v>5.119870017969483e-08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>-0.9944367129368479</v>
+      </c>
+      <c r="E20">
+        <v>-0.9944584080172578</v>
+      </c>
+      <c r="F20">
+        <v>-0.987085568710944</v>
+      </c>
+      <c r="G20">
+        <v>-0.9870174574658401</v>
+      </c>
+      <c r="H20">
+        <v>0.9938063095371991</v>
+      </c>
+      <c r="I20">
+        <v>0.9174091335024847</v>
+      </c>
+      <c r="J20">
+        <v>0.9812087559168522</v>
+      </c>
+      <c r="K20">
+        <v>-0.6944638224451667</v>
+      </c>
+      <c r="M20">
+        <v>-0.5927672806430564</v>
+      </c>
+      <c r="N20">
+        <v>0.9955502802464189</v>
+      </c>
+      <c r="O20">
+        <v>0.9924057105616777</v>
+      </c>
+      <c r="P20">
+        <v>0.9962153236610957</v>
+      </c>
+      <c r="Q20">
+        <v>0.9824569303098608</v>
+      </c>
+      <c r="R20">
+        <v>0.9624776069669716</v>
+      </c>
+      <c r="S20">
+        <v>-0.9448473876991078</v>
+      </c>
+      <c r="T20">
+        <v>0.9688005692503695</v>
+      </c>
+      <c r="U20">
+        <v>-0.9848681430753682</v>
+      </c>
+      <c r="W20">
+        <v>0.9620479192352631</v>
+      </c>
+      <c r="X20">
+        <v>0.8400969104420377</v>
+      </c>
+      <c r="Y20">
+        <v>0.8132845845886082</v>
+      </c>
+      <c r="AA20">
+        <v>0.934106697238867</v>
+      </c>
+      <c r="AB20">
+        <v>-0.9685431142689894</v>
+      </c>
+      <c r="AC20">
+        <v>0.9790599577594139</v>
+      </c>
+      <c r="AD20">
+        <v>0.9787884924088024</v>
+      </c>
+      <c r="AE20">
+        <v>0.4764688754608382</v>
+      </c>
+      <c r="AF20">
+        <v>-0.9847826166030745</v>
+      </c>
+      <c r="AG20">
+        <v>0.9846046033454912</v>
+      </c>
+      <c r="AH20">
+        <v>-0.9786617419216552</v>
+      </c>
+      <c r="AI20">
+        <v>0.9815424526544944</v>
+      </c>
+      <c r="AJ20">
+        <v>0.9799433126565349</v>
+      </c>
+      <c r="AK20">
+        <v>0.9785407210376691</v>
+      </c>
+      <c r="AL20">
+        <v>0.9807726947741667</v>
+      </c>
+      <c r="AM20">
+        <v>0.9790271132091573</v>
+      </c>
+      <c r="AO20">
+        <v>0.9824634861300239</v>
+      </c>
+      <c r="AP20">
+        <v>0.9820716469144718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>4.229585263746439e-13</v>
+      </c>
+      <c r="E21">
+        <v>4.131773224173199e-13</v>
+      </c>
+      <c r="F21">
+        <v>6.514702151878022e-11</v>
+      </c>
+      <c r="G21">
+        <v>6.72260607327185e-11</v>
+      </c>
+      <c r="H21">
+        <v>8.042997194492089e-13</v>
+      </c>
+      <c r="I21">
+        <v>3.827823293515789e-06</v>
+      </c>
+      <c r="J21">
+        <v>6.104817132957231e-10</v>
+      </c>
+      <c r="K21">
+        <v>0.005850796802352064</v>
+      </c>
+      <c r="M21">
+        <v>0.02548299000501418</v>
+      </c>
+      <c r="N21">
+        <v>1.110051900889856e-13</v>
+      </c>
+      <c r="O21">
+        <v>2.724813775138525e-12</v>
+      </c>
+      <c r="P21">
+        <v>4.208619951902997e-14</v>
+      </c>
+      <c r="Q21">
+        <v>4.052685666643154e-10</v>
+      </c>
+      <c r="R21">
+        <v>3.715832141400673e-08</v>
+      </c>
+      <c r="S21">
+        <v>3.605775813643588e-07</v>
+      </c>
+      <c r="T21">
+        <v>1.244966467063981e-08</v>
+      </c>
+      <c r="U21">
+        <v>1.677726554809246e-10</v>
+      </c>
+      <c r="W21">
+        <v>3.974848508379367e-08</v>
+      </c>
+      <c r="X21">
+        <v>0.0001694236322263672</v>
+      </c>
+      <c r="Y21">
+        <v>0.0004037923859474411</v>
+      </c>
+      <c r="AA21">
+        <v>1.024263258084067e-06</v>
+      </c>
+      <c r="AB21">
+        <v>1.307161973771448e-08</v>
+      </c>
+      <c r="AC21">
+        <v>1.163561456464794e-09</v>
+      </c>
+      <c r="AD21">
+        <v>1.256314828230671e-09</v>
+      </c>
+      <c r="AE21">
+        <v>0.08498725314357766</v>
+      </c>
+      <c r="AF21">
+        <v>1.735112530967815e-10</v>
+      </c>
+      <c r="AG21">
+        <v>1.859800588577119e-10</v>
+      </c>
+      <c r="AH21">
+        <v>1.301679589151254e-09</v>
+      </c>
+      <c r="AI21">
+        <v>5.48651080550267e-10</v>
+      </c>
+      <c r="AJ21">
+        <v>9.001356805452156e-10</v>
+      </c>
+      <c r="AK21">
+        <v>1.346255490479557e-09</v>
+      </c>
+      <c r="AL21">
+        <v>6.999082592630588e-10</v>
+      </c>
+      <c r="AM21">
+        <v>1.174471444545648e-09</v>
+      </c>
+      <c r="AO21">
+        <v>4.043664454158003e-10</v>
+      </c>
+      <c r="AP21">
+        <v>4.613076948162643e-10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>0.6015128376305579</v>
+      </c>
+      <c r="E22">
+        <v>0.6014231505684532</v>
+      </c>
+      <c r="F22">
+        <v>0.6165959295814821</v>
+      </c>
+      <c r="G22">
+        <v>0.6153185261882481</v>
+      </c>
+      <c r="H22">
+        <v>-0.6267144081664817</v>
+      </c>
+      <c r="I22">
+        <v>-0.5864424999075665</v>
+      </c>
+      <c r="J22">
+        <v>-0.6098906943678839</v>
+      </c>
+      <c r="K22">
+        <v>0.2804004697520535</v>
+      </c>
+      <c r="N22">
+        <v>-0.5870969121803576</v>
+      </c>
+      <c r="O22">
+        <v>-0.5941181387159978</v>
+      </c>
+      <c r="P22">
+        <v>-0.5926355404750221</v>
+      </c>
+      <c r="Q22">
+        <v>-0.6214912453970777</v>
+      </c>
+      <c r="R22">
+        <v>-0.6841640593380668</v>
+      </c>
+      <c r="S22">
+        <v>0.5957399208253171</v>
+      </c>
+      <c r="T22">
+        <v>-0.6280941576935029</v>
+      </c>
+      <c r="U22">
+        <v>0.6328744891360837</v>
+      </c>
+      <c r="W22">
+        <v>-0.6097190420127742</v>
+      </c>
+      <c r="X22">
+        <v>-0.5737853994366555</v>
+      </c>
+      <c r="Y22">
+        <v>-0.57514837632518</v>
+      </c>
+      <c r="AA22">
+        <v>-0.5795078680843881</v>
+      </c>
+      <c r="AB22">
+        <v>0.6269516320617688</v>
+      </c>
+      <c r="AC22">
+        <v>-0.6251598263293338</v>
+      </c>
+      <c r="AD22">
+        <v>-0.6265754133113972</v>
+      </c>
+      <c r="AE22">
+        <v>-0.4659442398681272</v>
+      </c>
+      <c r="AF22">
+        <v>0.6328032352433688</v>
+      </c>
+      <c r="AG22">
+        <v>-0.6282183321782198</v>
+      </c>
+      <c r="AH22">
+        <v>0.6257311357377746</v>
+      </c>
+      <c r="AI22">
+        <v>-0.6265192649562892</v>
+      </c>
+      <c r="AJ22">
+        <v>-0.6247343438655472</v>
+      </c>
+      <c r="AK22">
+        <v>-0.6245173797443833</v>
+      </c>
+      <c r="AL22">
+        <v>-0.625648922826556</v>
+      </c>
+      <c r="AM22">
+        <v>-0.6264915200185658</v>
+      </c>
+      <c r="AO22">
+        <v>-0.6270987886343592</v>
+      </c>
+      <c r="AP22">
+        <v>-0.6265496047557844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>0.02287179066414993</v>
+      </c>
+      <c r="E23">
+        <v>0.02289750234203545</v>
+      </c>
+      <c r="F23">
+        <v>0.0188477515045211</v>
+      </c>
+      <c r="G23">
+        <v>0.01916607630277169</v>
+      </c>
+      <c r="H23">
+        <v>0.01646564044143658</v>
+      </c>
+      <c r="I23">
+        <v>0.02750615724884252</v>
+      </c>
+      <c r="J23">
+        <v>0.02056425877679545</v>
+      </c>
+      <c r="K23">
+        <v>0.3315404951520394</v>
+      </c>
+      <c r="N23">
+        <v>0.02729143584073591</v>
+      </c>
+      <c r="O23">
+        <v>0.02506574059379882</v>
+      </c>
+      <c r="P23">
+        <v>0.02552395829643471</v>
+      </c>
+      <c r="Q23">
+        <v>0.01766478882252469</v>
+      </c>
+      <c r="R23">
+        <v>0.006961784953981735</v>
+      </c>
+      <c r="S23">
+        <v>0.02457159983053157</v>
+      </c>
+      <c r="T23">
+        <v>0.01615947055662728</v>
+      </c>
+      <c r="U23">
+        <v>0.01513209762745626</v>
+      </c>
+      <c r="W23">
+        <v>0.02060969670102238</v>
+      </c>
+      <c r="X23">
+        <v>0.03191231807584272</v>
+      </c>
+      <c r="Y23">
+        <v>0.03141421675631161</v>
+      </c>
+      <c r="AA23">
+        <v>0.02985978520984632</v>
+      </c>
+      <c r="AB23">
+        <v>0.01641268840038996</v>
+      </c>
+      <c r="AC23">
+        <v>0.01681586907863454</v>
+      </c>
+      <c r="AD23">
+        <v>0.01649672653790183</v>
+      </c>
+      <c r="AE23">
+        <v>0.09310680313920869</v>
+      </c>
+      <c r="AF23">
+        <v>0.01514703595740773</v>
+      </c>
+      <c r="AG23">
+        <v>0.01613212992695134</v>
+      </c>
+      <c r="AH23">
+        <v>0.01668650839855419</v>
+      </c>
+      <c r="AI23">
+        <v>0.01650929672203868</v>
+      </c>
+      <c r="AJ23">
+        <v>0.01691270444454127</v>
+      </c>
+      <c r="AK23">
+        <v>0.0169622460185495</v>
+      </c>
+      <c r="AL23">
+        <v>0.01670507699144199</v>
+      </c>
+      <c r="AM23">
+        <v>0.01651551079347243</v>
+      </c>
+      <c r="AO23">
+        <v>0.01637990592375782</v>
+      </c>
+      <c r="AP23">
+        <v>0.01650250351095617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24">
+        <v>-0.9832811036514989</v>
+      </c>
+      <c r="E24">
+        <v>-0.9833389081471982</v>
+      </c>
+      <c r="F24">
+        <v>-0.9769632177566349</v>
+      </c>
+      <c r="G24">
+        <v>-0.9772900373819225</v>
+      </c>
+      <c r="H24">
+        <v>0.9858505758104406</v>
+      </c>
+      <c r="I24">
+        <v>0.8776146613550293</v>
+      </c>
+      <c r="J24">
+        <v>0.9817419480788927</v>
+      </c>
+      <c r="K24">
+        <v>-0.6421303709415632</v>
+      </c>
+      <c r="O24">
+        <v>0.9781527051455756</v>
+      </c>
+      <c r="P24">
+        <v>0.9888218212163437</v>
+      </c>
+      <c r="Q24">
+        <v>0.9718029018820562</v>
+      </c>
+      <c r="R24">
+        <v>0.9609865737209298</v>
+      </c>
+      <c r="S24">
+        <v>-0.9667396689838236</v>
+      </c>
+      <c r="T24">
+        <v>0.9470989088531812</v>
+      </c>
+      <c r="U24">
+        <v>-0.9786658406054385</v>
+      </c>
+      <c r="W24">
+        <v>0.9335179147942839</v>
+      </c>
+      <c r="X24">
+        <v>0.862428613171607</v>
+      </c>
+      <c r="Y24">
+        <v>0.8406440130159805</v>
+      </c>
+      <c r="AA24">
+        <v>0.9515215100597176</v>
+      </c>
+      <c r="AB24">
+        <v>-0.9752782274699421</v>
+      </c>
+      <c r="AC24">
+        <v>0.9603073897903135</v>
+      </c>
+      <c r="AD24">
+        <v>0.9600379598606729</v>
+      </c>
+      <c r="AE24">
+        <v>0.4800916270969369</v>
+      </c>
+      <c r="AF24">
+        <v>-0.9783545090258756</v>
+      </c>
+      <c r="AG24">
+        <v>0.969666643071486</v>
+      </c>
+      <c r="AH24">
+        <v>-0.9628016656236043</v>
+      </c>
+      <c r="AI24">
+        <v>0.9645566544925825</v>
+      </c>
+      <c r="AJ24">
+        <v>0.9617548774279107</v>
+      </c>
+      <c r="AK24">
+        <v>0.9627485380479399</v>
+      </c>
+      <c r="AL24">
+        <v>0.9631896875425486</v>
+      </c>
+      <c r="AM24">
+        <v>0.9601623185637604</v>
+      </c>
+      <c r="AO24">
+        <v>0.9660296238704481</v>
+      </c>
+      <c r="AP24">
+        <v>0.9653049383663644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>3.041775894877703e-10</v>
+      </c>
+      <c r="E25">
+        <v>2.979589831287467e-10</v>
+      </c>
+      <c r="F25">
+        <v>2.053461832352417e-09</v>
+      </c>
+      <c r="G25">
+        <v>1.886084522712553e-09</v>
+      </c>
+      <c r="H25">
+        <v>1.123880116643962e-10</v>
+      </c>
+      <c r="I25">
+        <v>3.70814831596147e-05</v>
+      </c>
+      <c r="J25">
+        <v>5.142400801658281e-10</v>
+      </c>
+      <c r="K25">
+        <v>0.01328511314494485</v>
+      </c>
+      <c r="O25">
+        <v>1.497816328594895e-09</v>
+      </c>
+      <c r="P25">
+        <v>2.749746426631215e-11</v>
+      </c>
+      <c r="Q25">
+        <v>6.828591305012887e-09</v>
+      </c>
+      <c r="R25">
+        <v>4.679384578623826e-08</v>
+      </c>
+      <c r="S25">
+        <v>1.819259055916455e-08</v>
+      </c>
+      <c r="T25">
+        <v>2.821828474400178e-07</v>
+      </c>
+      <c r="U25">
+        <v>1.300191654062954e-09</v>
+      </c>
+      <c r="W25">
+        <v>1.07901931829848e-06</v>
+      </c>
+      <c r="X25">
+        <v>7.228733896082117e-05</v>
+      </c>
+      <c r="Y25">
+        <v>0.0001661827895688171</v>
+      </c>
+      <c r="AA25">
+        <v>1.687471841759028e-07</v>
+      </c>
+      <c r="AB25">
+        <v>3.125002964944265e-09</v>
+      </c>
+      <c r="AC25">
+        <v>5.182271517726009e-08</v>
+      </c>
+      <c r="AD25">
+        <v>5.393782142670001e-08</v>
+      </c>
+      <c r="AE25">
+        <v>0.08231112863488808</v>
+      </c>
+      <c r="AF25">
+        <v>1.417315735660761e-09</v>
+      </c>
+      <c r="AG25">
+        <v>1.053455816242029e-08</v>
+      </c>
+      <c r="AH25">
+        <v>3.529880017629809e-08</v>
+      </c>
+      <c r="AI25">
+        <v>2.65145384656506e-08</v>
+      </c>
+      <c r="AJ25">
+        <v>4.159934818341326e-08</v>
+      </c>
+      <c r="AK25">
+        <v>3.559825703403377e-08</v>
+      </c>
+      <c r="AL25">
+        <v>3.317435017374758e-08</v>
+      </c>
+      <c r="AM25">
+        <v>5.29528559889743e-08</v>
+      </c>
+      <c r="AO25">
+        <v>2.061900286134035e-08</v>
+      </c>
+      <c r="AP25">
+        <v>2.336618911906709e-08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>-0.9942310396723254</v>
+      </c>
+      <c r="E26">
+        <v>-0.9942249288168145</v>
+      </c>
+      <c r="F26">
+        <v>-0.9877666785278649</v>
+      </c>
+      <c r="G26">
+        <v>-0.9873883213016803</v>
+      </c>
+      <c r="H26">
+        <v>0.9934920842764868</v>
+      </c>
+      <c r="I26">
+        <v>0.9503628205468162</v>
+      </c>
+      <c r="J26">
+        <v>0.9640041953513957</v>
+      </c>
+      <c r="K26">
+        <v>-0.7492512165629911</v>
+      </c>
+      <c r="R26">
+        <v>0.9615474581412113</v>
+      </c>
+      <c r="S26">
+        <v>-0.9154558793748896</v>
+      </c>
+      <c r="T26">
+        <v>0.9839228539444225</v>
+      </c>
+      <c r="U26">
+        <v>-0.9849655919311217</v>
+      </c>
+      <c r="W26">
+        <v>0.9831704690175155</v>
+      </c>
+      <c r="X26">
+        <v>0.8171130402410608</v>
+      </c>
+      <c r="Y26">
+        <v>0.7832442870631332</v>
+      </c>
+      <c r="AA26">
+        <v>0.9115738221927387</v>
+      </c>
+      <c r="AB26">
+        <v>-0.9543569467150029</v>
+      </c>
+      <c r="AC26">
+        <v>0.9905819296412405</v>
+      </c>
+      <c r="AD26">
+        <v>0.990494768916795</v>
+      </c>
+      <c r="AE26">
+        <v>0.465904811255876</v>
+      </c>
+      <c r="AF26">
+        <v>-0.9849863356512438</v>
+      </c>
+      <c r="AG26">
+        <v>0.9924841546123241</v>
+      </c>
+      <c r="AH26">
+        <v>-0.9883242224216174</v>
+      </c>
+      <c r="AI26">
+        <v>0.9915931879330367</v>
+      </c>
+      <c r="AJ26">
+        <v>0.9912896227665107</v>
+      </c>
+      <c r="AK26">
+        <v>0.9881614228812894</v>
+      </c>
+      <c r="AL26">
+        <v>0.9914665950118955</v>
+      </c>
+      <c r="AM26">
+        <v>0.9909124528591911</v>
+      </c>
+      <c r="AO26">
+        <v>0.9919212746381542</v>
+      </c>
+      <c r="AP26">
+        <v>0.991889436185845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27">
+        <v>5.256569928731744e-13</v>
+      </c>
+      <c r="E27">
+        <v>5.289997687375318e-13</v>
+      </c>
+      <c r="F27">
+        <v>4.713529029995817e-11</v>
+      </c>
+      <c r="G27">
+        <v>5.654098971483108e-11</v>
+      </c>
+      <c r="H27">
+        <v>1.081631425746e-12</v>
+      </c>
+      <c r="I27">
+        <v>1.939479357081578e-07</v>
+      </c>
+      <c r="J27">
+        <v>2.905799872854862e-08</v>
+      </c>
+      <c r="K27">
+        <v>0.002038891115000746</v>
+      </c>
+      <c r="R27">
+        <v>4.295211238849116e-08</v>
+      </c>
+      <c r="S27">
+        <v>4.385115609814399e-06</v>
+      </c>
+      <c r="T27">
+        <v>2.40844330259053e-10</v>
+      </c>
+      <c r="U27">
+        <v>1.614273260277604e-10</v>
+      </c>
+      <c r="W27">
+        <v>3.163807251782273e-10</v>
+      </c>
+      <c r="X27">
+        <v>0.0003597593064537179</v>
+      </c>
+      <c r="Y27">
+        <v>0.0009216556276152694</v>
+      </c>
+      <c r="AA27">
+        <v>5.691496897348818e-06</v>
+      </c>
+      <c r="AB27">
+        <v>1.182710593174789e-07</v>
+      </c>
+      <c r="AC27">
+        <v>9.873760367197122e-12</v>
+      </c>
+      <c r="AD27">
+        <v>1.043291477448967e-11</v>
+      </c>
+      <c r="AE27">
+        <v>0.09313819925993883</v>
+      </c>
+      <c r="AF27">
+        <v>1.601027101405989e-10</v>
+      </c>
+      <c r="AG27">
+        <v>2.560673453025007e-12</v>
+      </c>
+      <c r="AH27">
+        <v>3.567106277892196e-11</v>
+      </c>
+      <c r="AI27">
+        <v>5.00545367694561e-12</v>
+      </c>
+      <c r="AJ27">
+        <v>6.188618873947707e-12</v>
+      </c>
+      <c r="AK27">
+        <v>3.874770694351398e-11</v>
+      </c>
+      <c r="AL27">
+        <v>5.473578521607534e-12</v>
+      </c>
+      <c r="AM27">
+        <v>7.974432323218773e-12</v>
+      </c>
+      <c r="AO27">
+        <v>3.944743767928395e-12</v>
+      </c>
+      <c r="AP27">
+        <v>4.038669195449354e-12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28">
+        <v>-0.9928201942458206</v>
+      </c>
+      <c r="E28">
+        <v>-0.9928446935879007</v>
+      </c>
+      <c r="F28">
+        <v>-0.9876003469030309</v>
+      </c>
+      <c r="G28">
+        <v>-0.9875519557412354</v>
+      </c>
+      <c r="H28">
+        <v>0.9951307318103788</v>
+      </c>
+      <c r="I28">
+        <v>0.925616875172719</v>
+      </c>
+      <c r="J28">
+        <v>0.9702024578350393</v>
+      </c>
+      <c r="K28">
+        <v>-0.7161253463894884</v>
+      </c>
+      <c r="O28">
+        <v>0.9971856847540516</v>
+      </c>
+      <c r="Q28">
+        <v>0.9863115939254703</v>
+      </c>
+      <c r="R28">
+        <v>0.9688328016674025</v>
+      </c>
+      <c r="S28">
+        <v>-0.940747894259395</v>
+      </c>
+      <c r="T28">
+        <v>0.9743449906435293</v>
+      </c>
+      <c r="U28">
+        <v>-0.9881052526618744</v>
+      </c>
+      <c r="W28">
+        <v>0.9680566025311184</v>
+      </c>
+      <c r="X28">
+        <v>0.8424717084848692</v>
+      </c>
+      <c r="Y28">
+        <v>0.811704292688739</v>
+      </c>
+      <c r="AA28">
+        <v>0.9331441014910778</v>
+      </c>
+      <c r="AB28">
+        <v>-0.9674716879724372</v>
+      </c>
+      <c r="AC28">
+        <v>0.9833815610400892</v>
+      </c>
+      <c r="AD28">
+        <v>0.9833202627063964</v>
+      </c>
+      <c r="AE28">
+        <v>0.4734832924868406</v>
+      </c>
+      <c r="AF28">
+        <v>-0.9878834692323726</v>
+      </c>
+      <c r="AG28">
+        <v>0.9884658596597634</v>
+      </c>
+      <c r="AH28">
+        <v>-0.9835724678752699</v>
+      </c>
+      <c r="AI28">
+        <v>0.9859045829126185</v>
+      </c>
+      <c r="AJ28">
+        <v>0.9846390281322753</v>
+      </c>
+      <c r="AK28">
+        <v>0.9834807068181688</v>
+      </c>
+      <c r="AL28">
+        <v>0.9853004555389799</v>
+      </c>
+      <c r="AM28">
+        <v>0.9836667936169148</v>
+      </c>
+      <c r="AO28">
+        <v>0.9866824177408774</v>
+      </c>
+      <c r="AP28">
+        <v>0.9863852369536883</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>1.947497806617344e-12</v>
+      </c>
+      <c r="E29">
+        <v>1.908064671619141e-12</v>
+      </c>
+      <c r="F29">
+        <v>5.109536676411234e-11</v>
+      </c>
+      <c r="G29">
+        <v>5.229808632369533e-11</v>
+      </c>
+      <c r="H29">
+        <v>1.904313024882824e-13</v>
+      </c>
+      <c r="I29">
+        <v>2.0801112905526e-06</v>
+      </c>
+      <c r="J29">
+        <v>9.47721486357696e-09</v>
+      </c>
+      <c r="K29">
+        <v>0.003965902042354408</v>
+      </c>
+      <c r="O29">
+        <v>7.130301919806233e-15</v>
+      </c>
+      <c r="Q29">
+        <v>9.222232459761508e-11</v>
+      </c>
+      <c r="R29">
+        <v>1.237355772417679e-08</v>
+      </c>
+      <c r="S29">
+        <v>5.494426773389321e-07</v>
+      </c>
+      <c r="T29">
+        <v>3.895190426885606e-09</v>
+      </c>
+      <c r="U29">
+        <v>3.985912595337552e-11</v>
+      </c>
+      <c r="W29">
+        <v>1.431736928245303e-08</v>
+      </c>
+      <c r="X29">
+        <v>0.0001557183592565609</v>
+      </c>
+      <c r="Y29">
+        <v>0.0004231880251288697</v>
+      </c>
+      <c r="AA29">
+        <v>1.115019853317383e-06</v>
+      </c>
+      <c r="AB29">
+        <v>1.594389584581998e-08</v>
+      </c>
+      <c r="AC29">
+        <v>2.934384662685358e-10</v>
+      </c>
+      <c r="AD29">
+        <v>2.999532019969058e-10</v>
+      </c>
+      <c r="AE29">
+        <v>0.0872380977509383</v>
+      </c>
+      <c r="AF29">
+        <v>4.451012390943527e-11</v>
+      </c>
+      <c r="AG29">
+        <v>3.316232515475994e-11</v>
+      </c>
+      <c r="AH29">
+        <v>2.738977476847904e-10</v>
+      </c>
+      <c r="AI29">
+        <v>1.098513799315985e-10</v>
+      </c>
+      <c r="AJ29">
+        <v>1.835124267449098e-10</v>
+      </c>
+      <c r="AK29">
+        <v>2.831504947943864e-10</v>
+      </c>
+      <c r="AL29">
+        <v>1.411223405576792e-10</v>
+      </c>
+      <c r="AM29">
+        <v>2.646497933242996e-10</v>
+      </c>
+      <c r="AO29">
+        <v>7.827409414129155e-11</v>
+      </c>
+      <c r="AP29">
+        <v>8.929933198369301e-11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>-0.9856784173330542</v>
+      </c>
+      <c r="E30">
+        <v>-0.9857302179843163</v>
+      </c>
+      <c r="F30">
+        <v>-0.9839488474698557</v>
+      </c>
+      <c r="G30">
+        <v>-0.9841837931193143</v>
+      </c>
+      <c r="H30">
+        <v>0.9902272797398122</v>
+      </c>
+      <c r="I30">
+        <v>0.9451038990121491</v>
+      </c>
+      <c r="J30">
+        <v>0.9561613799229077</v>
+      </c>
+      <c r="K30">
+        <v>-0.7169191054181117</v>
+      </c>
+      <c r="O30">
+        <v>0.9869555116614903</v>
+      </c>
+      <c r="R30">
+        <v>0.9811065436794386</v>
+      </c>
+      <c r="S30">
+        <v>-0.9306094595855133</v>
+      </c>
+      <c r="T30">
+        <v>0.9902067019035142</v>
+      </c>
+      <c r="U30">
+        <v>-0.9973428957866595</v>
+      </c>
+      <c r="W30">
+        <v>0.9756213696120369</v>
+      </c>
+      <c r="X30">
+        <v>0.8791494841398149</v>
+      </c>
+      <c r="Y30">
+        <v>0.8482226017575498</v>
+      </c>
+      <c r="AA30">
+        <v>0.9473683383726563</v>
+      </c>
+      <c r="AB30">
+        <v>-0.9679295862322218</v>
+      </c>
+      <c r="AC30">
+        <v>0.9941357097539713</v>
+      </c>
+      <c r="AD30">
+        <v>0.9942776642061617</v>
+      </c>
+      <c r="AE30">
+        <v>0.4586449570200954</v>
+      </c>
+      <c r="AF30">
+        <v>-0.9976745355682406</v>
+      </c>
+      <c r="AG30">
+        <v>0.9965351830348526</v>
+      </c>
+      <c r="AH30">
+        <v>-0.997546799356622</v>
+      </c>
+      <c r="AI30">
+        <v>0.9956993284025655</v>
+      </c>
+      <c r="AJ30">
+        <v>0.994907197900375</v>
+      </c>
+      <c r="AK30">
+        <v>0.997446085583945</v>
+      </c>
+      <c r="AL30">
+        <v>0.9953309098245081</v>
+      </c>
+      <c r="AM30">
+        <v>0.9938141115042366</v>
+      </c>
+      <c r="AO30">
+        <v>0.9959561867486982</v>
+      </c>
+      <c r="AP30">
+        <v>0.995789177265017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>1.208015082937843e-10</v>
+      </c>
+      <c r="E31">
+        <v>1.182166871173851e-10</v>
+      </c>
+      <c r="F31">
+        <v>2.385307414835215e-10</v>
+      </c>
+      <c r="G31">
+        <v>2.184444794916391e-10</v>
+      </c>
+      <c r="H31">
+        <v>1.231608018557875e-11</v>
+      </c>
+      <c r="I31">
+        <v>3.508287443297477e-07</v>
+      </c>
+      <c r="J31">
+        <v>9.321393389029406e-08</v>
+      </c>
+      <c r="K31">
+        <v>0.00390728472803004</v>
+      </c>
+      <c r="O31">
+        <v>6.916453908479489e-11</v>
+      </c>
+      <c r="R31">
+        <v>6.305392269590106e-10</v>
+      </c>
+      <c r="S31">
+        <v>1.386188874898348e-06</v>
+      </c>
+      <c r="T31">
+        <v>1.24719489208719e-11</v>
+      </c>
+      <c r="U31">
+        <v>5.052071060212316e-15</v>
+      </c>
+      <c r="W31">
+        <v>2.875749542653517e-09</v>
+      </c>
+      <c r="X31">
+        <v>3.449620238301789e-05</v>
+      </c>
+      <c r="Y31">
+        <v>0.0001262193463599719</v>
+      </c>
+      <c r="AA31">
+        <v>2.738302047282916e-07</v>
+      </c>
+      <c r="AB31">
+        <v>1.46583222613229e-08</v>
+      </c>
+      <c r="AC31">
+        <v>5.798570665235464e-13</v>
+      </c>
+      <c r="AD31">
+        <v>5.007265911517369e-13</v>
+      </c>
+      <c r="AE31">
+        <v>0.09904540537371592</v>
+      </c>
+      <c r="AF31">
+        <v>2.271878317335266e-15</v>
+      </c>
+      <c r="AG31">
+        <v>2.47940297537574e-14</v>
+      </c>
+      <c r="AH31">
+        <v>3.13044653834294e-15</v>
+      </c>
+      <c r="AI31">
+        <v>9.05115409936834e-14</v>
+      </c>
+      <c r="AJ31">
+        <v>2.491658579842443e-13</v>
+      </c>
+      <c r="AK31">
+        <v>3.984300534413262e-15</v>
+      </c>
+      <c r="AL31">
+        <v>1.480936297160609e-13</v>
+      </c>
+      <c r="AM31">
+        <v>7.982533257481984e-13</v>
+      </c>
+      <c r="AO31">
+        <v>6.258528779120448e-14</v>
+      </c>
+      <c r="AP31">
+        <v>7.975754639349607e-14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>-0.9606751514561465</v>
+      </c>
+      <c r="E32">
+        <v>-0.9607743639822485</v>
+      </c>
+      <c r="F32">
+        <v>-0.9613953944408031</v>
+      </c>
+      <c r="G32">
+        <v>-0.9621465209376476</v>
+      </c>
+      <c r="H32">
+        <v>0.9709247368849012</v>
+      </c>
+      <c r="I32">
+        <v>0.8913813076202862</v>
+      </c>
+      <c r="J32">
+        <v>0.9402905703286125</v>
+      </c>
+      <c r="K32">
+        <v>-0.6321595168803562</v>
+      </c>
+      <c r="T32">
+        <v>0.9572956586461473</v>
+      </c>
+      <c r="U32">
+        <v>-0.9869057518603713</v>
+      </c>
+      <c r="W32">
+        <v>0.9346934760444279</v>
+      </c>
+      <c r="AA32">
+        <v>0.9621057274259945</v>
+      </c>
+      <c r="AE32">
+        <v>0.5335397050940606</v>
+      </c>
+      <c r="AF32">
+        <v>-0.986476977615412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33">
+        <v>4.904697126803991e-08</v>
+      </c>
+      <c r="E33">
+        <v>4.831962787422048e-08</v>
+      </c>
+      <c r="F33">
+        <v>4.396683836247002e-08</v>
+      </c>
+      <c r="G33">
+        <v>3.914127643999864e-08</v>
+      </c>
+      <c r="H33">
+        <v>8.192567287575539e-09</v>
+      </c>
+      <c r="I33">
+        <v>1.869066070465707e-05</v>
+      </c>
+      <c r="J33">
+        <v>5.748061990208705e-07</v>
+      </c>
+      <c r="K33">
+        <v>0.01528250112697119</v>
+      </c>
+      <c r="T33">
+        <v>7.984460178895332e-08</v>
+      </c>
+      <c r="U33">
+        <v>7.075514855842279e-11</v>
+      </c>
+      <c r="W33">
+        <v>9.719945138893034e-07</v>
+      </c>
+      <c r="AA33">
+        <v>3.939155181252318e-08</v>
+      </c>
+      <c r="AE33">
+        <v>0.04942621200787122</v>
+      </c>
+      <c r="AF33">
+        <v>8.576619089128276e-11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34">
+        <v>0.9282376055535992</v>
+      </c>
+      <c r="E34">
+        <v>0.9284071006451096</v>
+      </c>
+      <c r="F34">
+        <v>0.9375282296819321</v>
+      </c>
+      <c r="G34">
+        <v>0.9390159238452281</v>
+      </c>
+      <c r="H34">
+        <v>-0.9451437203172304</v>
+      </c>
+      <c r="I34">
+        <v>-0.7711153015796351</v>
+      </c>
+      <c r="J34">
+        <v>-0.933791183357504</v>
+      </c>
+      <c r="K34">
+        <v>0.5425242243428269</v>
+      </c>
+      <c r="R34">
+        <v>-0.947226533302188</v>
+      </c>
+      <c r="T34">
+        <v>-0.8875239387154007</v>
+      </c>
+      <c r="U34">
+        <v>0.9507217436169954</v>
+      </c>
+      <c r="W34">
+        <v>-0.8499324363876564</v>
+      </c>
+      <c r="AA34">
+        <v>-0.9848701634245137</v>
+      </c>
+      <c r="AE34">
+        <v>-0.4889487653906445</v>
+      </c>
+      <c r="AF34">
+        <v>0.9496913270307713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>1.687066886255856e-06</v>
+      </c>
+      <c r="E35">
+        <v>1.66392125078446e-06</v>
+      </c>
+      <c r="F35">
+        <v>7.494334390645085e-07</v>
+      </c>
+      <c r="G35">
+        <v>6.506503483234063e-07</v>
+      </c>
+      <c r="H35">
+        <v>3.493350389182526e-07</v>
+      </c>
+      <c r="I35">
+        <v>0.001241913552503995</v>
+      </c>
+      <c r="J35">
+        <v>1.053313066348753e-06</v>
+      </c>
+      <c r="K35">
+        <v>0.04502146471830902</v>
+      </c>
+      <c r="R35">
+        <v>2.782004686231986e-07</v>
+      </c>
+      <c r="T35">
+        <v>2.284578712972803e-05</v>
+      </c>
+      <c r="U35">
+        <v>1.858297362244143e-07</v>
+      </c>
+      <c r="W35">
+        <v>0.0001183845099928333</v>
+      </c>
+      <c r="AA35">
+        <v>1.676390281545116e-10</v>
+      </c>
+      <c r="AE35">
+        <v>0.07601892897955438</v>
+      </c>
+      <c r="AF35">
+        <v>2.099241324500449e-07</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36">
+        <v>0.9822049873076364</v>
+      </c>
+      <c r="I36">
+        <v>0.975525681033659</v>
+      </c>
+      <c r="J36">
+        <v>0.9366207496588008</v>
+      </c>
+      <c r="K36">
+        <v>-0.7893108648488648</v>
+      </c>
+      <c r="U36">
+        <v>-0.9840902127371017</v>
+      </c>
+      <c r="W36">
+        <v>0.9928518104049028</v>
+      </c>
+      <c r="AA36">
+        <v>0.9043011320416465</v>
+      </c>
+      <c r="AF36">
+        <v>-0.9847551790553395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37">
+        <v>4.412280338626754e-10</v>
+      </c>
+      <c r="I37">
+        <v>2.943533778544834e-09</v>
+      </c>
+      <c r="J37">
+        <v>8.155430978238542e-07</v>
+      </c>
+      <c r="K37">
+        <v>0.0007884137535278676</v>
+      </c>
+      <c r="U37">
+        <v>2.262693098500657e-10</v>
+      </c>
+      <c r="W37">
+        <v>1.896735149529062e-12</v>
+      </c>
+      <c r="AA37">
+        <v>8.998318737937034e-06</v>
+      </c>
+      <c r="AF37">
+        <v>1.75386446645032e-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38">
+        <v>0.7003382617327276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39">
+        <v>0.005282206975209397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42">
+      <c r="A40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40">
+        <v>-0.9061812455594802</v>
+      </c>
+      <c r="C40">
+        <v>-0.9061802207692716</v>
+      </c>
+      <c r="D40">
+        <v>-0.977190288290851</v>
+      </c>
+      <c r="E40">
+        <v>-0.9771276720468953</v>
+      </c>
+      <c r="F40">
+        <v>-0.9718676906612145</v>
+      </c>
+      <c r="G40">
+        <v>-0.970868275688285</v>
+      </c>
+      <c r="H40">
+        <v>0.9711608727792076</v>
+      </c>
+      <c r="I40">
+        <v>0.9903972022250626</v>
+      </c>
+      <c r="J40">
+        <v>0.9295326798225404</v>
+      </c>
+      <c r="K40">
+        <v>-0.8047655521945463</v>
+      </c>
+      <c r="L40">
+        <v>0.9605105235762567</v>
+      </c>
+      <c r="M40">
+        <v>-0.6046894799346497</v>
+      </c>
+      <c r="N40">
+        <v>0.9310821645271312</v>
+      </c>
+      <c r="O40">
+        <v>0.982228447505714</v>
+      </c>
+      <c r="P40">
+        <v>0.9663448966742729</v>
+      </c>
+      <c r="Q40">
+        <v>0.9728379071374084</v>
+      </c>
+      <c r="R40">
+        <v>0.9305302841052542</v>
+      </c>
+      <c r="S40">
+        <v>-0.8436010814480025</v>
+      </c>
+      <c r="T40">
+        <v>0.9910141035737591</v>
+      </c>
+      <c r="U40">
+        <v>-0.9629823555910871</v>
+      </c>
+      <c r="V40">
+        <v>0.9960714392738237</v>
+      </c>
+      <c r="W40">
+        <v>0.9998093831793887</v>
+      </c>
+      <c r="X40">
+        <v>0.7604398354964137</v>
+      </c>
+      <c r="Y40">
+        <v>0.7229707679556716</v>
+      </c>
+      <c r="Z40">
+        <v>-0.9339446950264606</v>
+      </c>
+      <c r="AA40">
+        <v>0.8534547222040046</v>
+      </c>
+      <c r="AB40">
+        <v>-0.9126858662245221</v>
+      </c>
+      <c r="AC40">
+        <v>0.9910503470524371</v>
+      </c>
+      <c r="AD40">
+        <v>0.9909342368564138</v>
+      </c>
+      <c r="AE40">
+        <v>0.4415308601042199</v>
+      </c>
+      <c r="AF40">
+        <v>-0.9637031553023632</v>
+      </c>
+      <c r="AG40">
+        <v>0.9855317950014467</v>
+      </c>
+      <c r="AH40">
+        <v>-0.9838734538305507</v>
+      </c>
+      <c r="AI40">
+        <v>0.9885350170612345</v>
+      </c>
+      <c r="AJ40">
+        <v>0.9902288744167481</v>
+      </c>
+      <c r="AK40">
+        <v>0.9833921000984578</v>
+      </c>
+      <c r="AL40">
+        <v>0.9893997462196434</v>
+      </c>
+      <c r="AM40">
+        <v>0.9915164697420757</v>
+      </c>
+      <c r="AN40">
+        <v>-0.9839038641297827</v>
+      </c>
+      <c r="AO40">
+        <v>0.9878146647262955</v>
+      </c>
+      <c r="AP40">
+        <v>0.9883249427327792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41">
+        <v>8.021868168572493e-06</v>
+      </c>
+      <c r="C41">
+        <v>8.022375636720512e-06</v>
+      </c>
+      <c r="D41">
+        <v>1.935921516690611e-09</v>
+      </c>
+      <c r="E41">
+        <v>1.967761170448417e-09</v>
+      </c>
+      <c r="F41">
+        <v>6.735935202069244e-09</v>
+      </c>
+      <c r="G41">
+        <v>8.28747235272878e-09</v>
+      </c>
+      <c r="H41">
+        <v>7.805362061699631e-09</v>
+      </c>
+      <c r="I41">
+        <v>1.10898364407338e-11</v>
+      </c>
+      <c r="J41">
+        <v>1.516760626073802e-06</v>
+      </c>
+      <c r="K41">
+        <v>0.000517431041687518</v>
+      </c>
+      <c r="L41">
+        <v>5.027388926668451e-08</v>
+      </c>
+      <c r="M41">
+        <v>0.02197503189062053</v>
+      </c>
+      <c r="N41">
+        <v>1.331872693346278e-06</v>
+      </c>
+      <c r="O41">
+        <v>4.377714994756899e-10</v>
+      </c>
+      <c r="P41">
+        <v>1.951050184669923e-08</v>
+      </c>
+      <c r="Q41">
+        <v>5.46836867314153e-09</v>
+      </c>
+      <c r="R41">
+        <v>1.395462549666109e-06</v>
+      </c>
+      <c r="S41">
+        <v>0.0001495238070221734</v>
+      </c>
+      <c r="T41">
+        <v>7.455608647896589e-12</v>
+      </c>
+      <c r="U41">
+        <v>3.429590707681636e-08</v>
+      </c>
+      <c r="V41">
+        <v>5.263007113783659e-14</v>
+      </c>
+      <c r="W41">
+        <v>6.922802238977466e-22</v>
+      </c>
+      <c r="X41">
+        <v>0.001592034385287604</v>
+      </c>
+      <c r="Y41">
+        <v>0.003482408433615764</v>
+      </c>
+      <c r="Z41">
+        <v>1.039095318830814e-06</v>
+      </c>
+      <c r="AA41">
+        <v>0.000103486516439595</v>
+      </c>
+      <c r="AB41">
+        <v>5.288352563814738e-06</v>
+      </c>
+      <c r="AC41">
+        <v>7.277557869634552e-12</v>
+      </c>
+      <c r="AD41">
+        <v>7.860791394515444e-12</v>
+      </c>
+      <c r="AE41">
+        <v>0.1139855174618378</v>
+      </c>
+      <c r="AF41">
+        <v>3.052695157858949e-08</v>
+      </c>
+      <c r="AG41">
+        <v>1.283739684091828e-10</v>
+      </c>
+      <c r="AH41">
+        <v>2.45292688774428e-10</v>
+      </c>
+      <c r="AI41">
+        <v>3.199180278196521e-11</v>
+      </c>
+      <c r="AJ41">
+        <v>1.230406915150184e-11</v>
+      </c>
+      <c r="AK41">
+        <v>2.923303257897525e-10</v>
+      </c>
+      <c r="AL41">
+        <v>2.002184334009414e-11</v>
+      </c>
+      <c r="AM41">
+        <v>5.284981337110771e-12</v>
+      </c>
+      <c r="AN41">
+        <v>2.425463117891767e-10</v>
+      </c>
+      <c r="AO41">
+        <v>4.604151721451456e-11</v>
+      </c>
+      <c r="AP41">
+        <v>3.565791622559213e-11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42">
+      <c r="A42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42">
+        <v>-0.9358250963669507</v>
+      </c>
+      <c r="C42">
+        <v>-0.9358246565131318</v>
+      </c>
+      <c r="D42">
+        <v>-0.9855374778068425</v>
+      </c>
+      <c r="E42">
+        <v>-0.9855147827319777</v>
+      </c>
+      <c r="F42">
+        <v>-0.9851292618968257</v>
+      </c>
+      <c r="G42">
+        <v>-0.9845386392016415</v>
+      </c>
+      <c r="H42">
+        <v>0.9846059535900822</v>
+      </c>
+      <c r="I42">
+        <v>0.9791889289362139</v>
+      </c>
+      <c r="J42">
+        <v>0.9399512606937697</v>
+      </c>
+      <c r="K42">
+        <v>-0.7868103983200762</v>
+      </c>
+      <c r="L42">
+        <v>0.9710016937597094</v>
+      </c>
+      <c r="M42">
+        <v>-0.625116773051649</v>
+      </c>
+      <c r="N42">
+        <v>0.9477517552683615</v>
+      </c>
+      <c r="O42">
+        <v>0.9869982819565565</v>
+      </c>
+      <c r="P42">
+        <v>0.97616125243554</v>
+      </c>
+      <c r="Q42">
+        <v>0.9857708166486213</v>
+      </c>
+      <c r="R42">
+        <v>0.9510073032845004</v>
+      </c>
+      <c r="S42">
+        <v>-0.8807110125038685</v>
+      </c>
+      <c r="T42">
+        <v>0.9971105894257967</v>
+      </c>
+      <c r="U42">
+        <v>-0.9800079238938534</v>
+      </c>
+      <c r="W42">
+        <v>0.9974473136800531</v>
+      </c>
+      <c r="X42">
+        <v>0.8099545826492708</v>
+      </c>
+      <c r="Y42">
+        <v>0.7772577603554981</v>
+      </c>
+      <c r="Z42">
+        <v>-0.9567402928877892</v>
+      </c>
+      <c r="AA42">
+        <v>0.8903539943852469</v>
+      </c>
+      <c r="AB42">
+        <v>-0.9417148865514655</v>
+      </c>
+      <c r="AC42">
+        <v>0.9974826910836818</v>
+      </c>
+      <c r="AD42">
+        <v>0.9974050614564434</v>
+      </c>
+      <c r="AE42">
+        <v>0.4464505288652431</v>
+      </c>
+      <c r="AF42">
+        <v>-0.98061733665007</v>
+      </c>
+      <c r="AG42">
+        <v>0.9948952911175371</v>
+      </c>
+      <c r="AH42">
+        <v>-0.9932299524109909</v>
+      </c>
+      <c r="AI42">
+        <v>0.9964164253157428</v>
+      </c>
+      <c r="AJ42">
+        <v>0.9970383838191363</v>
+      </c>
+      <c r="AK42">
+        <v>0.992758828814883</v>
+      </c>
+      <c r="AL42">
+        <v>0.9967495992153614</v>
+      </c>
+      <c r="AM42">
+        <v>0.9978687991294556</v>
+      </c>
+      <c r="AN42">
+        <v>-0.9927738306174836</v>
+      </c>
+      <c r="AO42">
+        <v>0.9960895386741246</v>
+      </c>
+      <c r="AP42">
+        <v>0.9962972101333653</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42">
+      <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43">
+        <v>8.773972306560149e-07</v>
+      </c>
+      <c r="C43">
+        <v>8.774324649469615e-07</v>
+      </c>
+      <c r="D43">
+        <v>1.28073298326166e-10</v>
+      </c>
+      <c r="E43">
+        <v>1.292775772750005e-10</v>
+      </c>
+      <c r="F43">
+        <v>1.512193671166637e-10</v>
+      </c>
+      <c r="G43">
+        <v>1.907856080411094e-10</v>
+      </c>
+      <c r="H43">
+        <v>1.858827537547243e-10</v>
+      </c>
+      <c r="I43">
+        <v>1.121531859996324e-09</v>
+      </c>
+      <c r="J43">
+        <v>5.94242783161956e-07</v>
+      </c>
+      <c r="K43">
+        <v>0.0008413215719578619</v>
+      </c>
+      <c r="L43">
+        <v>8.06466498689962e-09</v>
+      </c>
+      <c r="M43">
+        <v>0.01682564834944374</v>
+      </c>
+      <c r="N43">
+        <v>2.622970442747353e-07</v>
+      </c>
+      <c r="O43">
+        <v>6.782123030996942e-11</v>
+      </c>
+      <c r="P43">
+        <v>2.517115129721438e-09</v>
+      </c>
+      <c r="Q43">
+        <v>1.162231385916928e-10</v>
+      </c>
+      <c r="R43">
+        <v>1.795735017539406e-07</v>
+      </c>
+      <c r="S43">
+        <v>3.20189424827516e-05</v>
+      </c>
+      <c r="T43">
+        <v>8.349434110370274e-15</v>
+      </c>
+      <c r="U43">
+        <v>8.830000618313794e-10</v>
+      </c>
+      <c r="W43">
+        <v>3.972829271236557e-15</v>
+      </c>
+      <c r="X43">
+        <v>0.0004455308494174266</v>
+      </c>
+      <c r="Y43">
+        <v>0.001070214460330534</v>
+      </c>
+      <c r="Z43">
+        <v>8.617655789212566e-08</v>
+      </c>
+      <c r="AA43">
+        <v>1.973129198766503e-05</v>
+      </c>
+      <c r="AB43">
+        <v>4.98846170021154e-07</v>
+      </c>
+      <c r="AC43">
+        <v>3.653989010865244e-15</v>
+      </c>
+      <c r="AD43">
+        <v>4.38367447051591e-15</v>
+      </c>
+      <c r="AE43">
+        <v>0.1095426161647551</v>
+      </c>
+      <c r="AF43">
+        <v>7.342866396927703e-10</v>
+      </c>
+      <c r="AG43">
+        <v>2.526751345769842e-13</v>
+      </c>
+      <c r="AH43">
+        <v>1.370040856212406e-12</v>
+      </c>
+      <c r="AI43">
+        <v>3.034264398053218e-14</v>
+      </c>
+      <c r="AJ43">
+        <v>9.680702323609298e-15</v>
+      </c>
+      <c r="AK43">
+        <v>2.049256989462448e-12</v>
+      </c>
+      <c r="AL43">
+        <v>1.690778145311242e-14</v>
+      </c>
+      <c r="AM43">
+        <v>1.346648073751956e-15</v>
+      </c>
+      <c r="AN43">
+        <v>2.023980678563211e-12</v>
+      </c>
+      <c r="AO43">
+        <v>5.119387142844453e-14</v>
+      </c>
+      <c r="AP43">
+        <v>3.691628216694048e-14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42">
+      <c r="A44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44">
+        <v>0.9737441377219982</v>
+      </c>
+      <c r="I44">
+        <v>0.9893711727910556</v>
+      </c>
+      <c r="J44">
+        <v>0.9301266822188549</v>
+      </c>
+      <c r="K44">
+        <v>-0.8041359600927094</v>
+      </c>
+      <c r="U44">
+        <v>-0.9663425272015866</v>
+      </c>
+      <c r="AA44">
+        <v>0.8602511096770017</v>
+      </c>
+      <c r="AF44">
+        <v>-0.967081060878751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42">
+      <c r="A45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45">
+        <v>4.469803376124669e-09</v>
+      </c>
+      <c r="I45">
+        <v>2.034660062375992e-11</v>
+      </c>
+      <c r="J45">
+        <v>1.443534301112298e-06</v>
+      </c>
+      <c r="K45">
+        <v>0.0005267541600399398</v>
+      </c>
+      <c r="U45">
+        <v>1.951864463655674e-08</v>
+      </c>
+      <c r="AA45">
+        <v>7.9039018010978e-05</v>
+      </c>
+      <c r="AF45">
+        <v>1.711323105340905e-08</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42">
+      <c r="A46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46">
+        <v>-0.8311059864464935</v>
+      </c>
+      <c r="E46">
+        <v>-0.8313869967129768</v>
+      </c>
+      <c r="F46">
+        <v>-0.8562534240749046</v>
+      </c>
+      <c r="G46">
+        <v>-0.8589133790665403</v>
+      </c>
+      <c r="H46">
+        <v>0.8575654301660101</v>
+      </c>
+      <c r="I46">
+        <v>0.7067732435817184</v>
+      </c>
+      <c r="J46">
+        <v>0.812401189606773</v>
+      </c>
+      <c r="K46">
+        <v>-0.5153263432512727</v>
+      </c>
+      <c r="R46">
+        <v>0.9004637734872404</v>
+      </c>
+      <c r="S46">
+        <v>-0.9384829502175378</v>
+      </c>
+      <c r="T46">
+        <v>0.8362362428791998</v>
+      </c>
+      <c r="U46">
+        <v>-0.8957017977665902</v>
+      </c>
+      <c r="W46">
+        <v>0.7704051425630252</v>
+      </c>
+      <c r="Y46">
+        <v>0.9928615644085174</v>
+      </c>
+      <c r="AA46">
+        <v>0.9698389296611792</v>
+      </c>
+      <c r="AB46">
+        <v>-0.9180525551881168</v>
+      </c>
+      <c r="AC46">
+        <v>0.836843352074461</v>
+      </c>
+      <c r="AD46">
+        <v>0.8369243112892726</v>
+      </c>
+      <c r="AE46">
+        <v>0.463753003040513</v>
+      </c>
+      <c r="AF46">
+        <v>-0.8953162221934491</v>
+      </c>
+      <c r="AG46">
+        <v>0.8519382094894808</v>
+      </c>
+      <c r="AH46">
+        <v>-0.8590366861979938</v>
+      </c>
+      <c r="AI46">
+        <v>0.8449172333232263</v>
+      </c>
+      <c r="AJ46">
+        <v>0.8391964591415398</v>
+      </c>
+      <c r="AK46">
+        <v>0.860077693704651</v>
+      </c>
+      <c r="AL46">
+        <v>0.842100344984746</v>
+      </c>
+      <c r="AM46">
+        <v>0.8336254292824901</v>
+      </c>
+      <c r="AO46">
+        <v>0.8466644737759831</v>
+      </c>
+      <c r="AP46">
+        <v>0.8451111978157628</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42">
+      <c r="A47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47">
+        <v>0.0002304514030872578</v>
+      </c>
+      <c r="E47">
+        <v>0.000228307454737093</v>
+      </c>
+      <c r="F47">
+        <v>9.276806714037024e-05</v>
+      </c>
+      <c r="G47">
+        <v>8.343520196784597e-05</v>
+      </c>
+      <c r="H47">
+        <v>8.806411837308673e-05</v>
+      </c>
+      <c r="I47">
+        <v>0.004709886894292851</v>
+      </c>
+      <c r="J47">
+        <v>0.000414544324784645</v>
+      </c>
+      <c r="K47">
+        <v>0.05930382498331519</v>
+      </c>
+      <c r="R47">
+        <v>1.129522361605238e-05</v>
+      </c>
+      <c r="S47">
+        <v>6.847212087864542e-07</v>
+      </c>
+      <c r="T47">
+        <v>0.0001937783614936137</v>
+      </c>
+      <c r="U47">
+        <v>1.479290113626727e-05</v>
+      </c>
+      <c r="W47">
+        <v>0.001263102040423965</v>
+      </c>
+      <c r="Y47">
+        <v>1.881298413814029e-12</v>
+      </c>
+      <c r="AA47">
+        <v>1.018441832674873e-08</v>
+      </c>
+      <c r="AB47">
+        <v>3.657555607438569e-06</v>
+      </c>
+      <c r="AC47">
+        <v>0.000189771301139773</v>
+      </c>
+      <c r="AD47">
+        <v>0.0001892420605560307</v>
+      </c>
+      <c r="AE47">
+        <v>0.09486282896777476</v>
+      </c>
+      <c r="AF47">
+        <v>1.511105011351445e-05</v>
+      </c>
+      <c r="AG47">
+        <v>0.0001097017506645752</v>
+      </c>
+      <c r="AH47">
+        <v>8.302184095379604e-05</v>
+      </c>
+      <c r="AI47">
+        <v>0.0001425584690611239</v>
+      </c>
+      <c r="AJ47">
+        <v>0.0001748689638955136</v>
+      </c>
+      <c r="AK47">
+        <v>7.959803909660991e-05</v>
+      </c>
+      <c r="AL47">
+        <v>0.0001578001172121251</v>
+      </c>
+      <c r="AM47">
+        <v>0.0002117989218105704</v>
+      </c>
+      <c r="AO47">
+        <v>0.0001337206289604197</v>
+      </c>
+      <c r="AP47">
+        <v>0.0001415546074010894</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42">
+      <c r="A48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48">
+        <v>-0.7997794341038466</v>
+      </c>
+      <c r="E48">
+        <v>-0.8000921755869954</v>
+      </c>
+      <c r="F48">
+        <v>-0.8316804934262693</v>
+      </c>
+      <c r="G48">
+        <v>-0.8346630428095629</v>
+      </c>
+      <c r="H48">
+        <v>0.8308739508304334</v>
+      </c>
+      <c r="I48">
+        <v>0.6653321323898088</v>
+      </c>
+      <c r="J48">
+        <v>0.7836758788680362</v>
+      </c>
+      <c r="K48">
+        <v>-0.485704049759213</v>
+      </c>
+      <c r="R48">
+        <v>0.8742878584186226</v>
+      </c>
+      <c r="S48">
+        <v>-0.9282026638344756</v>
+      </c>
+      <c r="T48">
+        <v>0.8029139120630963</v>
+      </c>
+      <c r="U48">
+        <v>-0.8679319753735147</v>
+      </c>
+      <c r="W48">
+        <v>0.7341071240353816</v>
+      </c>
+      <c r="AA48">
+        <v>0.9561990656006295</v>
+      </c>
+      <c r="AB48">
+        <v>-0.9048403375924184</v>
+      </c>
+      <c r="AC48">
+        <v>0.8042530399866175</v>
+      </c>
+      <c r="AD48">
+        <v>0.804245913334111</v>
+      </c>
+      <c r="AE48">
+        <v>0.4773919786735151</v>
+      </c>
+      <c r="AF48">
+        <v>-0.8680161872394636</v>
+      </c>
+      <c r="AG48">
+        <v>0.8210215242380035</v>
+      </c>
+      <c r="AH48">
+        <v>-0.8276465333817558</v>
+      </c>
+      <c r="AI48">
+        <v>0.8131940448464257</v>
+      </c>
+      <c r="AJ48">
+        <v>0.8066827192930683</v>
+      </c>
+      <c r="AK48">
+        <v>0.8288635928485154</v>
+      </c>
+      <c r="AL48">
+        <v>0.809984245527467</v>
+      </c>
+      <c r="AM48">
+        <v>0.8007723793342056</v>
+      </c>
+      <c r="AO48">
+        <v>0.8151390014475137</v>
+      </c>
+      <c r="AP48">
+        <v>0.8133510028249364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42">
+      <c r="A49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49">
+        <v>0.0005950313256741326</v>
+      </c>
+      <c r="E49">
+        <v>0.0005899049391596906</v>
+      </c>
+      <c r="F49">
+        <v>0.0002260854928900371</v>
+      </c>
+      <c r="G49">
+        <v>0.0002044814637053208</v>
+      </c>
+      <c r="H49">
+        <v>0.0002322339488489756</v>
+      </c>
+      <c r="I49">
+        <v>0.009410307402173518</v>
+      </c>
+      <c r="J49">
+        <v>0.0009116193127180793</v>
+      </c>
+      <c r="K49">
+        <v>0.07828310309080089</v>
+      </c>
+      <c r="R49">
+        <v>4.323053626906461e-05</v>
+      </c>
+      <c r="S49">
+        <v>1.691871227846048e-06</v>
+      </c>
+      <c r="T49">
+        <v>0.0005452357720641533</v>
+      </c>
+      <c r="U49">
+        <v>5.729086002779144e-05</v>
+      </c>
+      <c r="W49">
+        <v>0.002796044164624761</v>
+      </c>
+      <c r="AA49">
+        <v>9.274180019282295e-08</v>
+      </c>
+      <c r="AB49">
+        <v>8.708816988745694e-06</v>
+      </c>
+      <c r="AC49">
+        <v>0.0005250102788605195</v>
+      </c>
+      <c r="AD49">
+        <v>0.0005251162960903035</v>
+      </c>
+      <c r="AE49">
+        <v>0.08429964457537575</v>
+      </c>
+      <c r="AF49">
+        <v>5.708288226486713e-05</v>
+      </c>
+      <c r="AG49">
+        <v>0.0003188841436383857</v>
+      </c>
+      <c r="AH49">
+        <v>0.0002582055933498245</v>
+      </c>
+      <c r="AI49">
+        <v>0.0004048839155423358</v>
+      </c>
+      <c r="AJ49">
+        <v>0.0004898550797384062</v>
+      </c>
+      <c r="AK49">
+        <v>0.0002481496510630546</v>
+      </c>
+      <c r="AL49">
+        <v>0.0004451443220212379</v>
+      </c>
+      <c r="AM49">
+        <v>0.0005788775973266215</v>
+      </c>
+      <c r="AO49">
+        <v>0.000381952091741321</v>
+      </c>
+      <c r="AP49">
+        <v>0.0004029931686335999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42">
+      <c r="A50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50">
+        <v>0.9797188859136182</v>
+      </c>
+      <c r="E50">
+        <v>0.9797890873695947</v>
+      </c>
+      <c r="F50">
+        <v>0.9902506370743173</v>
+      </c>
+      <c r="G50">
+        <v>0.9906227827277391</v>
+      </c>
+      <c r="H50">
+        <v>-0.9853837944035456</v>
+      </c>
+      <c r="I50">
+        <v>-0.8832460931253702</v>
+      </c>
+      <c r="J50">
+        <v>-0.9527998627335208</v>
+      </c>
+      <c r="K50">
+        <v>0.6852717103066061</v>
+      </c>
+      <c r="L50">
+        <v>-0.975404604421274</v>
+      </c>
+      <c r="M50">
+        <v>0.6380533188793556</v>
+      </c>
+      <c r="N50">
+        <v>-0.9754910342793132</v>
+      </c>
+      <c r="O50">
+        <v>-0.9643647327957987</v>
+      </c>
+      <c r="P50">
+        <v>-0.9719183356816122</v>
+      </c>
+      <c r="Q50">
+        <v>-0.9652976849200579</v>
+      </c>
+      <c r="R50">
+        <v>-0.9542228281593959</v>
+      </c>
+      <c r="S50">
+        <v>0.9627463034943619</v>
+      </c>
+      <c r="T50">
+        <v>-0.9539506425198379</v>
+      </c>
+      <c r="U50">
+        <v>0.9773244448966704</v>
+      </c>
+      <c r="W50">
+        <v>-0.9382251559406808</v>
+      </c>
+      <c r="X50">
+        <v>-0.8839430417423196</v>
+      </c>
+      <c r="Y50">
+        <v>-0.8686691060390026</v>
+      </c>
+      <c r="AA50">
+        <v>-0.947552945934505</v>
+      </c>
+      <c r="AB50">
+        <v>0.9891766687595478</v>
+      </c>
+      <c r="AC50">
+        <v>-0.9621554527300656</v>
+      </c>
+      <c r="AD50">
+        <v>-0.9615305232588929</v>
+      </c>
+      <c r="AE50">
+        <v>-0.5135812947431625</v>
+      </c>
+      <c r="AF50">
+        <v>0.9768986726961084</v>
+      </c>
+      <c r="AG50">
+        <v>-0.9704057565740293</v>
+      </c>
+      <c r="AH50">
+        <v>0.9622384492713895</v>
+      </c>
+      <c r="AI50">
+        <v>-0.9656694418072636</v>
+      </c>
+      <c r="AJ50">
+        <v>-0.9624853114629555</v>
+      </c>
+      <c r="AK50">
+        <v>-0.9619355185895943</v>
+      </c>
+      <c r="AL50">
+        <v>-0.9641129801733408</v>
+      </c>
+      <c r="AM50">
+        <v>-0.9620189205935648</v>
+      </c>
+      <c r="AO50">
+        <v>-0.967059640625845</v>
+      </c>
+      <c r="AP50">
+        <v>-0.9661844274088994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42">
+      <c r="A51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51">
+        <v>9.61818383832515e-10</v>
+      </c>
+      <c r="E51">
+        <v>9.421577572135285e-10</v>
+      </c>
+      <c r="F51">
+        <v>1.214112551963048e-11</v>
+      </c>
+      <c r="G51">
+        <v>9.620397845112891e-12</v>
+      </c>
+      <c r="H51">
+        <v>1.36413823011735e-10</v>
+      </c>
+      <c r="I51">
+        <v>2.830782664972098e-05</v>
+      </c>
+      <c r="J51">
+        <v>1.441497869030046e-07</v>
+      </c>
+      <c r="K51">
+        <v>0.006835010618319786</v>
+      </c>
+      <c r="L51">
+        <v>3.031198852981918e-09</v>
+      </c>
+      <c r="M51">
+        <v>0.01407608678112727</v>
+      </c>
+      <c r="N51">
+        <v>2.968401753908541e-09</v>
+      </c>
+      <c r="O51">
+        <v>2.737630351767546e-08</v>
+      </c>
+      <c r="P51">
+        <v>6.66423517083261e-09</v>
+      </c>
+      <c r="Q51">
+        <v>2.33951457943996e-08</v>
+      </c>
+      <c r="R51">
+        <v>1.20336398810936e-07</v>
+      </c>
+      <c r="S51">
+        <v>3.561089822099869e-08</v>
+      </c>
+      <c r="T51">
+        <v>1.246197187172903e-07</v>
+      </c>
+      <c r="U51">
+        <v>1.869142913592392e-09</v>
+      </c>
+      <c r="W51">
+        <v>7.017216638516839e-07</v>
+      </c>
+      <c r="X51">
+        <v>2.735171537484497e-05</v>
+      </c>
+      <c r="Y51">
+        <v>5.549115719192179e-05</v>
+      </c>
+      <c r="AA51">
+        <v>2.682259976421464e-07</v>
+      </c>
+      <c r="AB51">
+        <v>2.267585660318781e-11</v>
+      </c>
+      <c r="AC51">
+        <v>3.908665453674778e-08</v>
+      </c>
+      <c r="AD51">
+        <v>4.306414994537252e-08</v>
+      </c>
+      <c r="AE51">
+        <v>0.06031945392444788</v>
+      </c>
+      <c r="AF51">
+        <v>2.087933756963615e-09</v>
+      </c>
+      <c r="AG51">
+        <v>9.09982300453319e-09</v>
+      </c>
+      <c r="AH51">
+        <v>3.858210704239628e-08</v>
+      </c>
+      <c r="AI51">
+        <v>2.194880946224771e-08</v>
+      </c>
+      <c r="AJ51">
+        <v>3.711318832863521e-08</v>
+      </c>
+      <c r="AK51">
+        <v>4.045016990874165e-08</v>
+      </c>
+      <c r="AL51">
+        <v>2.854180512185474e-08</v>
+      </c>
+      <c r="AM51">
+        <v>3.992854229692418e-08</v>
+      </c>
+      <c r="AO51">
+        <v>1.717935412148033e-08</v>
+      </c>
+      <c r="AP51">
+        <v>2.00683656331742e-08</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42">
+      <c r="A52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52">
+        <v>0.9387226321973189</v>
+      </c>
+      <c r="I52">
+        <v>0.7956325262768706</v>
+      </c>
+      <c r="J52">
+        <v>0.9174048591736508</v>
+      </c>
+      <c r="K52">
+        <v>-0.5611488382066134</v>
+      </c>
+      <c r="U52">
+        <v>-0.961094762197472</v>
+      </c>
+      <c r="AF52">
+        <v>-0.9606300032914198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42">
+      <c r="A53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H53">
+        <v>6.692215889959074e-07</v>
+      </c>
+      <c r="I53">
+        <v>0.0006664542127623452</v>
+      </c>
+      <c r="J53">
+        <v>3.828975815029919e-06</v>
+      </c>
+      <c r="K53">
+        <v>0.0368138215219172</v>
+      </c>
+      <c r="U53">
+        <v>4.603147290385517e-08</v>
+      </c>
+      <c r="AF53">
+        <v>4.938094975761276e-08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42">
+      <c r="A54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54">
+        <v>0.9654043845927881</v>
+      </c>
+      <c r="E54">
+        <v>0.9655239861242436</v>
+      </c>
+      <c r="F54">
+        <v>0.9747958146861321</v>
+      </c>
+      <c r="G54">
+        <v>0.975721882281522</v>
+      </c>
+      <c r="H54">
+        <v>-0.9791389556075754</v>
+      </c>
+      <c r="I54">
+        <v>-0.8592096612651549</v>
+      </c>
+      <c r="J54">
+        <v>-0.9496419462536226</v>
+      </c>
+      <c r="K54">
+        <v>0.6314119958628688</v>
+      </c>
+      <c r="R54">
+        <v>-0.9639400462844606</v>
+      </c>
+      <c r="S54">
+        <v>0.9788695307918611</v>
+      </c>
+      <c r="T54">
+        <v>-0.9418200245786676</v>
+      </c>
+      <c r="U54">
+        <v>0.9788769237544671</v>
+      </c>
+      <c r="W54">
+        <v>-0.9184081309911853</v>
+      </c>
+      <c r="AA54">
+        <v>-0.9731269598182621</v>
+      </c>
+      <c r="AC54">
+        <v>-0.9516918921159216</v>
+      </c>
+      <c r="AD54">
+        <v>-0.9514969688116792</v>
+      </c>
+      <c r="AE54">
+        <v>-0.4708415522133859</v>
+      </c>
+      <c r="AF54">
+        <v>0.9787076729355743</v>
+      </c>
+      <c r="AG54">
+        <v>-0.9629818666373393</v>
+      </c>
+      <c r="AH54">
+        <v>0.9572212065139725</v>
+      </c>
+      <c r="AI54">
+        <v>-0.9571445196677549</v>
+      </c>
+      <c r="AJ54">
+        <v>-0.9532737242145133</v>
+      </c>
+      <c r="AK54">
+        <v>-0.9567990365097818</v>
+      </c>
+      <c r="AL54">
+        <v>-0.9552473885666072</v>
+      </c>
+      <c r="AM54">
+        <v>-0.952230126053824</v>
+      </c>
+      <c r="AO54">
+        <v>-0.9588200685795037</v>
+      </c>
+      <c r="AP54">
+        <v>-0.9577668818133327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42">
+      <c r="A55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55">
+        <v>2.297217376987176e-08</v>
+      </c>
+      <c r="E55">
+        <v>2.250561285123928e-08</v>
+      </c>
+      <c r="F55">
+        <v>3.50554376335187e-09</v>
+      </c>
+      <c r="G55">
+        <v>2.805948919293063e-09</v>
+      </c>
+      <c r="H55">
+        <v>1.137665047641706e-09</v>
+      </c>
+      <c r="I55">
+        <v>8.244478777235314e-05</v>
+      </c>
+      <c r="J55">
+        <v>2.11140691164103e-07</v>
+      </c>
+      <c r="K55">
+        <v>0.01544096709733439</v>
+      </c>
+      <c r="R55">
+        <v>2.936600161709456e-08</v>
+      </c>
+      <c r="S55">
+        <v>1.228005066544839e-09</v>
+      </c>
+      <c r="T55">
+        <v>4.935851602446161e-07</v>
+      </c>
+      <c r="U55">
+        <v>1.225449027473596e-09</v>
+      </c>
+      <c r="W55">
+        <v>3.566166117023962e-06</v>
+      </c>
+      <c r="AA55">
+        <v>5.131579963448064e-09</v>
+      </c>
+      <c r="AC55">
+        <v>1.652813404171672e-07</v>
+      </c>
+      <c r="AD55">
+        <v>1.692513089494561e-07</v>
+      </c>
+      <c r="AE55">
+        <v>0.08926422005211272</v>
+      </c>
+      <c r="AF55">
+        <v>1.285085996901133e-09</v>
+      </c>
+      <c r="AG55">
+        <v>3.429858872002937e-08</v>
+      </c>
+      <c r="AH55">
+        <v>8.067038212078645e-08</v>
+      </c>
+      <c r="AI55">
+        <v>8.152832897286317e-08</v>
+      </c>
+      <c r="AJ55">
+        <v>1.358221810444148e-07</v>
+      </c>
+      <c r="AK55">
+        <v>8.548775307367333e-08</v>
+      </c>
+      <c r="AL55">
+        <v>1.052893065151155e-07</v>
+      </c>
+      <c r="AM55">
+        <v>1.547172506655309e-07</v>
+      </c>
+      <c r="AO55">
+        <v>6.441239999612586e-08</v>
+      </c>
+      <c r="AP55">
+        <v>7.477875603203853e-08</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42">
+      <c r="A56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56">
+        <v>-0.9893148085322794</v>
+      </c>
+      <c r="E56">
+        <v>-0.989319584246787</v>
+      </c>
+      <c r="F56">
+        <v>-0.9880916559729643</v>
+      </c>
+      <c r="G56">
+        <v>-0.9878059596910007</v>
+      </c>
+      <c r="H56">
+        <v>0.9891227068431072</v>
+      </c>
+      <c r="I56">
+        <v>0.9700362257947361</v>
+      </c>
+      <c r="J56">
+        <v>0.9504862595567494</v>
+      </c>
+      <c r="K56">
+        <v>-0.7647336129524256</v>
+      </c>
+      <c r="R56">
+        <v>0.9666921838665059</v>
+      </c>
+      <c r="S56">
+        <v>-0.9014952093307903</v>
+      </c>
+      <c r="T56">
+        <v>0.9979206146481931</v>
+      </c>
+      <c r="U56">
+        <v>-0.9898795673363191</v>
+      </c>
+      <c r="W56">
+        <v>0.9926732428207848</v>
+      </c>
+      <c r="AA56">
+        <v>0.9144968143509853</v>
+      </c>
+      <c r="AD56">
+        <v>0.9999854081033034</v>
+      </c>
+      <c r="AE56">
+        <v>0.4712883368482433</v>
+      </c>
+      <c r="AF56">
+        <v>-0.9903236601565538</v>
+      </c>
+      <c r="AG56">
+        <v>0.9990299095280774</v>
+      </c>
+      <c r="AH56">
+        <v>-0.9986617418340855</v>
+      </c>
+      <c r="AI56">
+        <v>0.9997751410864466</v>
+      </c>
+      <c r="AJ56">
+        <v>0.9999342044876511</v>
+      </c>
+      <c r="AK56">
+        <v>0.9984400948799063</v>
+      </c>
+      <c r="AL56">
+        <v>0.9998786840340078</v>
+      </c>
+      <c r="AM56">
+        <v>0.9998434165270368</v>
+      </c>
+      <c r="AO56">
+        <v>0.999627825839174</v>
+      </c>
+      <c r="AP56">
+        <v>0.9997154570903127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42">
+      <c r="A57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57">
+        <v>2.100008036690203e-11</v>
+      </c>
+      <c r="E57">
+        <v>2.094404295046071e-11</v>
+      </c>
+      <c r="F57">
+        <v>4.013210742685678e-11</v>
+      </c>
+      <c r="G57">
+        <v>4.623835188414526e-11</v>
+      </c>
+      <c r="H57">
+        <v>2.3359985548747e-11</v>
+      </c>
+      <c r="I57">
+        <v>9.795365103154263e-09</v>
+      </c>
+      <c r="J57">
+        <v>1.91123528408361e-07</v>
+      </c>
+      <c r="K57">
+        <v>0.001442861142092857</v>
+      </c>
+      <c r="R57">
+        <v>1.83470953785101e-08</v>
+      </c>
+      <c r="S57">
+        <v>1.063531671613282e-05</v>
+      </c>
+      <c r="T57">
+        <v>1.161892497778164e-15</v>
+      </c>
+      <c r="U57">
+        <v>1.517921527121625e-11</v>
+      </c>
+      <c r="W57">
+        <v>2.198540404810001e-12</v>
+      </c>
+      <c r="AA57">
+        <v>4.682212580997379e-06</v>
+      </c>
+      <c r="AD57">
+        <v>1.393634522539315e-28</v>
+      </c>
+      <c r="AE57">
+        <v>0.08891926497197387</v>
+      </c>
+      <c r="AF57">
+        <v>1.16074392267097e-11</v>
+      </c>
+      <c r="AG57">
+        <v>1.200777282983825e-17</v>
+      </c>
+      <c r="AH57">
+        <v>8.269621981670438e-17</v>
+      </c>
+      <c r="AI57">
+        <v>1.865277171483792e-21</v>
+      </c>
+      <c r="AJ57">
+        <v>1.171138892647552e-24</v>
+      </c>
+      <c r="AK57">
+        <v>2.073141557941409e-16</v>
+      </c>
+      <c r="AL57">
+        <v>4.601366838483409e-23</v>
+      </c>
+      <c r="AM57">
+        <v>2.127266002101251e-22</v>
+      </c>
+      <c r="AO57">
+        <v>3.833742345649077e-20</v>
+      </c>
+      <c r="AP57">
+        <v>7.657972232576039e-21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42">
+      <c r="A58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58">
+        <v>-0.988939118640317</v>
+      </c>
+      <c r="E58">
+        <v>-0.9889441155229898</v>
+      </c>
+      <c r="F58">
+        <v>-0.9876516502614942</v>
+      </c>
+      <c r="G58">
+        <v>-0.9873688662147938</v>
+      </c>
+      <c r="H58">
+        <v>0.9889783382309491</v>
+      </c>
+      <c r="I58">
+        <v>0.9699677166143732</v>
+      </c>
+      <c r="J58">
+        <v>0.9503191174313101</v>
+      </c>
+      <c r="K58">
+        <v>-0.7633019833446214</v>
+      </c>
+      <c r="R58">
+        <v>0.9673763112778081</v>
+      </c>
+      <c r="S58">
+        <v>-0.901385174157144</v>
+      </c>
+      <c r="T58">
+        <v>0.9978508505290288</v>
+      </c>
+      <c r="U58">
+        <v>-0.989992848475723</v>
+      </c>
+      <c r="W58">
+        <v>0.9925710271313217</v>
+      </c>
+      <c r="AA58">
+        <v>0.9146322034254781</v>
+      </c>
+      <c r="AE58">
+        <v>0.4704624227524496</v>
+      </c>
+      <c r="AF58">
+        <v>-0.9904364925230997</v>
+      </c>
+      <c r="AG58">
+        <v>0.9990427996900733</v>
+      </c>
+      <c r="AH58">
+        <v>-0.9987512747972669</v>
+      </c>
+      <c r="AI58">
+        <v>0.9997905433887286</v>
+      </c>
+      <c r="AJ58">
+        <v>0.9999564887176086</v>
+      </c>
+      <c r="AK58">
+        <v>0.9985168637936496</v>
+      </c>
+      <c r="AL58">
+        <v>0.999897499623766</v>
+      </c>
+      <c r="AM58">
+        <v>0.9998743164693094</v>
+      </c>
+      <c r="AO58">
+        <v>0.9996431463606903</v>
+      </c>
+      <c r="AP58">
+        <v>0.9997331855427513</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42">
+      <c r="A59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59">
+        <v>2.581751163138031e-11</v>
+      </c>
+      <c r="E59">
+        <v>2.574788733953313e-11</v>
+      </c>
+      <c r="F59">
+        <v>4.984548382158175e-11</v>
+      </c>
+      <c r="G59">
+        <v>5.706395041824374e-11</v>
+      </c>
+      <c r="H59">
+        <v>2.527522968740336e-11</v>
+      </c>
+      <c r="I59">
+        <v>9.92903719646226e-09</v>
+      </c>
+      <c r="J59">
+        <v>1.949561430443613e-07</v>
+      </c>
+      <c r="K59">
+        <v>0.001491305600261749</v>
+      </c>
+      <c r="R59">
+        <v>1.622309695693113e-08</v>
+      </c>
+      <c r="S59">
+        <v>1.070417208255872e-05</v>
+      </c>
+      <c r="T59">
+        <v>1.416089865716643e-15</v>
+      </c>
+      <c r="U59">
+        <v>1.419134434129339e-11</v>
+      </c>
+      <c r="W59">
+        <v>2.388586054172609e-12</v>
+      </c>
+      <c r="AA59">
+        <v>4.639296572858624e-06</v>
+      </c>
+      <c r="AE59">
+        <v>0.08955767190120013</v>
+      </c>
+      <c r="AF59">
+        <v>1.082127304294906e-11</v>
+      </c>
+      <c r="AG59">
+        <v>1.108199660440282e-17</v>
+      </c>
+      <c r="AH59">
+        <v>5.459223468258368e-17</v>
+      </c>
+      <c r="AI59">
+        <v>1.218600915574694e-21</v>
+      </c>
+      <c r="AJ59">
+        <v>9.796316403241317e-26</v>
+      </c>
+      <c r="AK59">
+        <v>1.531784126170452e-16</v>
+      </c>
+      <c r="AL59">
+        <v>1.673976520796791e-23</v>
+      </c>
+      <c r="AM59">
+        <v>5.689122215893207e-23</v>
+      </c>
+      <c r="AO59">
+        <v>2.979206837481949e-20</v>
+      </c>
+      <c r="AP59">
+        <v>5.205948005546247e-21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42">
+      <c r="A60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60">
+        <v>-0.4766405565839467</v>
+      </c>
+      <c r="E60">
+        <v>-0.4767617839111308</v>
+      </c>
+      <c r="F60">
+        <v>-0.4984913002812223</v>
+      </c>
+      <c r="G60">
+        <v>-0.4995374909113467</v>
+      </c>
+      <c r="H60">
+        <v>0.4630808786602871</v>
+      </c>
+      <c r="I60">
+        <v>0.4077700231230265</v>
+      </c>
+      <c r="J60">
+        <v>0.4732911090256741</v>
+      </c>
+      <c r="K60">
+        <v>-0.3838394267838132</v>
+      </c>
+      <c r="T60">
+        <v>0.4572898657505174</v>
+      </c>
+      <c r="U60">
+        <v>-0.485806282199321</v>
+      </c>
+      <c r="W60">
+        <v>0.4421667424008934</v>
+      </c>
+      <c r="AA60">
+        <v>0.4964492927305366</v>
+      </c>
+      <c r="AF60">
+        <v>-0.4846832341953514</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42">
+      <c r="A61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <v>0.08485907322058397</v>
+      </c>
+      <c r="E61">
+        <v>0.08476864463940867</v>
+      </c>
+      <c r="F61">
+        <v>0.06962907161101203</v>
+      </c>
+      <c r="G61">
+        <v>0.06895258410041431</v>
+      </c>
+      <c r="H61">
+        <v>0.09540603954615046</v>
+      </c>
+      <c r="I61">
+        <v>0.1478152094909446</v>
+      </c>
+      <c r="J61">
+        <v>0.08738439993422829</v>
+      </c>
+      <c r="K61">
+        <v>0.1754538348328181</v>
+      </c>
+      <c r="T61">
+        <v>0.1001760558352551</v>
+      </c>
+      <c r="U61">
+        <v>0.07821104745868199</v>
+      </c>
+      <c r="W61">
+        <v>0.1134044480670201</v>
+      </c>
+      <c r="AA61">
+        <v>0.07096305989896215</v>
+      </c>
+      <c r="AF61">
+        <v>0.07900516731812328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42">
+      <c r="A62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K62">
+        <v>0.702350833767669</v>
+      </c>
+      <c r="U62">
+        <v>0.9999629623280101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42">
+      <c r="A63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K63">
+        <v>0.005097676526324276</v>
+      </c>
+      <c r="U63">
+        <v>3.726658660373229e-26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42">
+      <c r="A64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64">
+        <v>-0.9921805617571786</v>
+      </c>
+      <c r="E64">
+        <v>-0.9922000266995038</v>
+      </c>
+      <c r="F64">
+        <v>-0.9916657961075281</v>
+      </c>
+      <c r="G64">
+        <v>-0.9915366013987207</v>
+      </c>
+      <c r="H64">
+        <v>0.9938791691466254</v>
+      </c>
+      <c r="I64">
+        <v>0.9589158146741197</v>
+      </c>
+      <c r="J64">
+        <v>0.9579750435232957</v>
+      </c>
+      <c r="K64">
+        <v>-0.7468958921859309</v>
+      </c>
+      <c r="R64">
+        <v>0.973620705311212</v>
+      </c>
+      <c r="S64">
+        <v>-0.9190188841824496</v>
+      </c>
+      <c r="T64">
+        <v>0.9953512597920188</v>
+      </c>
+      <c r="U64">
+        <v>-0.9946746756792851</v>
+      </c>
+      <c r="W64">
+        <v>0.9875964418227726</v>
+      </c>
+      <c r="AA64">
+        <v>0.9287171788865124</v>
+      </c>
+      <c r="AE64">
+        <v>0.4741139395461077</v>
+      </c>
+      <c r="AF64">
+        <v>-0.9949573114869172</v>
+      </c>
+      <c r="AI64">
+        <v>0.9997061616445925</v>
+      </c>
+      <c r="AJ64">
+        <v>0.9992898310866465</v>
+      </c>
+      <c r="AK64">
+        <v>0.998511527653426</v>
+      </c>
+      <c r="AL64">
+        <v>0.9995241367845089</v>
+      </c>
+      <c r="AM64">
+        <v>0.9990252334711243</v>
+      </c>
+      <c r="AO64">
+        <v>0.9998488185159146</v>
+      </c>
+      <c r="AP64">
+        <v>0.9997768023613386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42">
+      <c r="A65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65">
+        <v>3.245316906159163e-12</v>
+      </c>
+      <c r="E65">
+        <v>3.197279883965289e-12</v>
+      </c>
+      <c r="F65">
+        <v>4.752344699401361e-12</v>
+      </c>
+      <c r="G65">
+        <v>5.210403403520365e-12</v>
+      </c>
+      <c r="H65">
+        <v>7.492921326814222e-13</v>
+      </c>
+      <c r="I65">
+        <v>6.353227529907957e-08</v>
+      </c>
+      <c r="J65">
+        <v>7.262730986154649e-08</v>
+      </c>
+      <c r="K65">
+        <v>0.002144507719102081</v>
+      </c>
+      <c r="R65">
+        <v>4.596144919243748e-09</v>
+      </c>
+      <c r="S65">
+        <v>3.413578285366756e-06</v>
+      </c>
+      <c r="T65">
+        <v>1.442691390694105e-13</v>
+      </c>
+      <c r="U65">
+        <v>3.25542180162197e-13</v>
+      </c>
+      <c r="W65">
+        <v>5.119156254835889e-11</v>
+      </c>
+      <c r="AA65">
+        <v>1.622255315950178e-06</v>
+      </c>
+      <c r="AE65">
+        <v>0.08675921365048175</v>
+      </c>
+      <c r="AF65">
+        <v>2.348374288241805e-13</v>
+      </c>
+      <c r="AI65">
+        <v>9.28687145210261e-21</v>
+      </c>
+      <c r="AJ65">
+        <v>1.849272648432385e-18</v>
+      </c>
+      <c r="AK65">
+        <v>1.565132093662523e-16</v>
+      </c>
+      <c r="AL65">
+        <v>1.674718863151065e-19</v>
+      </c>
+      <c r="AM65">
+        <v>1.235914206616304e-17</v>
+      </c>
+      <c r="AO65">
+        <v>1.723228722480077e-22</v>
+      </c>
+      <c r="AP65">
+        <v>1.784110903046357e-21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42">
+      <c r="A66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66">
+        <v>0.9863445600856856</v>
+      </c>
+      <c r="E66">
+        <v>0.986376066268781</v>
+      </c>
+      <c r="F66">
+        <v>0.9861245212152385</v>
+      </c>
+      <c r="G66">
+        <v>0.986128032248051</v>
+      </c>
+      <c r="H66">
+        <v>-0.9884290856628728</v>
+      </c>
+      <c r="I66">
+        <v>-0.9611996362418918</v>
+      </c>
+      <c r="J66">
+        <v>-0.9488470179820389</v>
+      </c>
+      <c r="K66">
+        <v>0.7513343716580971</v>
+      </c>
+      <c r="R66">
+        <v>-0.9755642179454881</v>
+      </c>
+      <c r="S66">
+        <v>0.9125102083824996</v>
+      </c>
+      <c r="T66">
+        <v>-0.9963476793093091</v>
+      </c>
+      <c r="U66">
+        <v>0.9940208799034025</v>
+      </c>
+      <c r="W66">
+        <v>-0.9861232797471646</v>
+      </c>
+      <c r="AA66">
+        <v>-0.9300389291006517</v>
+      </c>
+      <c r="AE66">
+        <v>-0.4794339565871565</v>
+      </c>
+      <c r="AF66">
+        <v>0.9944618292301741</v>
+      </c>
+      <c r="AG66">
+        <v>-0.998769235262313</v>
+      </c>
+      <c r="AI66">
+        <v>-0.9991285713351674</v>
+      </c>
+      <c r="AJ66">
+        <v>-0.9989702575687586</v>
+      </c>
+      <c r="AK66">
+        <v>-0.9999664474154811</v>
+      </c>
+      <c r="AL66">
+        <v>-0.9990746996830068</v>
+      </c>
+      <c r="AM66">
+        <v>-0.9981885613757704</v>
+      </c>
+      <c r="AO66">
+        <v>-0.9990559306790303</v>
+      </c>
+      <c r="AP66">
+        <v>-0.9990601813385518</v>
+      </c>
+    </row>
+    <row r="67" spans="1:42">
+      <c r="A67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67">
+        <v>9.090416915366131e-11</v>
+      </c>
+      <c r="E67">
+        <v>8.965907239872137e-11</v>
+      </c>
+      <c r="F67">
+        <v>1.000072780082463e-10</v>
+      </c>
+      <c r="G67">
+        <v>9.985629516330054e-11</v>
+      </c>
+      <c r="H67">
+        <v>3.379911093703612e-11</v>
+      </c>
+      <c r="I67">
+        <v>4.530230690418984e-08</v>
+      </c>
+      <c r="J67">
+        <v>2.315417236226763e-07</v>
+      </c>
+      <c r="K67">
+        <v>0.001948953681420977</v>
+      </c>
+      <c r="R67">
+        <v>2.916077071585567e-09</v>
+      </c>
+      <c r="S67">
+        <v>5.350423252697096e-06</v>
+      </c>
+      <c r="T67">
+        <v>3.400196495358879e-14</v>
+      </c>
+      <c r="U67">
+        <v>6.512455353277759e-13</v>
+      </c>
+      <c r="W67">
+        <v>1.000607095302644e-10</v>
+      </c>
+      <c r="AA67">
+        <v>1.45416485803636e-06</v>
+      </c>
+      <c r="AE67">
+        <v>0.08279248791133989</v>
+      </c>
+      <c r="AF67">
+        <v>4.116522073237303e-13</v>
+      </c>
+      <c r="AG67">
+        <v>5.004913797564438e-17</v>
+      </c>
+      <c r="AI67">
+        <v>6.310618541182632e-18</v>
+      </c>
+      <c r="AJ67">
+        <v>1.717533213505947e-17</v>
+      </c>
+      <c r="AK67">
+        <v>2.059760123697252e-26</v>
+      </c>
+      <c r="AL67">
+        <v>9.043301144281918e-18</v>
+      </c>
+      <c r="AM67">
+        <v>5.080978514064316e-16</v>
+      </c>
+      <c r="AO67">
+        <v>1.020085472706579e-17</v>
+      </c>
+      <c r="AP67">
+        <v>9.928453296037339e-18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42">
+      <c r="A68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D68">
+        <v>-0.9903947169619819</v>
+      </c>
+      <c r="E68">
+        <v>-0.9904079847191317</v>
+      </c>
+      <c r="F68">
+        <v>-0.9895908827209304</v>
+      </c>
+      <c r="G68">
+        <v>-0.9893958096771883</v>
+      </c>
+      <c r="H68">
+        <v>0.9913353281275489</v>
+      </c>
+      <c r="I68">
+        <v>0.9650893152388329</v>
+      </c>
+      <c r="J68">
+        <v>0.9534451090576253</v>
+      </c>
+      <c r="K68">
+        <v>-0.7569764389568551</v>
+      </c>
+      <c r="R68">
+        <v>0.9706597951817089</v>
+      </c>
+      <c r="S68">
+        <v>-0.909769335331104</v>
+      </c>
+      <c r="T68">
+        <v>0.9970050007223147</v>
+      </c>
+      <c r="U68">
+        <v>-0.9924600663678591</v>
+      </c>
+      <c r="W68">
+        <v>0.9904107550494455</v>
+      </c>
+      <c r="AA68">
+        <v>0.9217908589639038</v>
+      </c>
+      <c r="AE68">
+        <v>0.4730276567452557</v>
+      </c>
+      <c r="AF68">
+        <v>-0.9928479123559136</v>
+      </c>
+      <c r="AJ68">
+        <v>0.9999015619062321</v>
+      </c>
+      <c r="AL68">
+        <v>0.9999757616231112</v>
+      </c>
+      <c r="AM68">
+        <v>0.9996819373961934</v>
+      </c>
+      <c r="AO68">
+        <v>0.9999759268392652</v>
+      </c>
+      <c r="AP68">
+        <v>0.9999926078970518</v>
+      </c>
+    </row>
+    <row r="69" spans="1:42">
+      <c r="A69" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D69">
+        <v>1.110700891844875e-11</v>
+      </c>
+      <c r="E69">
+        <v>1.10155880494416e-11</v>
+      </c>
+      <c r="F69">
+        <v>1.795843581150438e-11</v>
+      </c>
+      <c r="G69">
+        <v>2.006632703769099e-11</v>
+      </c>
+      <c r="H69">
+        <v>5.996907614985375e-12</v>
+      </c>
+      <c r="I69">
+        <v>2.423977979466518e-08</v>
+      </c>
+      <c r="J69">
+        <v>1.329101168144291e-07</v>
+      </c>
+      <c r="K69">
+        <v>0.001721075504909016</v>
+      </c>
+      <c r="R69">
+        <v>8.645846541473573e-09</v>
+      </c>
+      <c r="S69">
+        <v>6.399208362276367e-06</v>
+      </c>
+      <c r="T69">
+        <v>1.03534108677272e-14</v>
+      </c>
+      <c r="U69">
+        <v>2.610176225881717e-12</v>
+      </c>
+      <c r="W69">
+        <v>1.09965784660314e-11</v>
+      </c>
+      <c r="AA69">
+        <v>2.786859028321141e-06</v>
+      </c>
+      <c r="AE69">
+        <v>0.08758523529589131</v>
+      </c>
+      <c r="AF69">
+        <v>1.902933639178417e-12</v>
+      </c>
+      <c r="AJ69">
+        <v>1.313347211980391e-23</v>
+      </c>
+      <c r="AL69">
+        <v>2.927457811453224e-27</v>
+      </c>
+      <c r="AM69">
+        <v>1.493728404559801e-20</v>
+      </c>
+      <c r="AO69">
+        <v>2.809753931073481e-27</v>
+      </c>
+      <c r="AP69">
+        <v>2.355554502711598e-30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:42">
+      <c r="A70" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70">
+        <v>-0.9894452630757383</v>
+      </c>
+      <c r="E70">
+        <v>-0.9894535662590762</v>
+      </c>
+      <c r="F70">
+        <v>-0.9881132363666828</v>
+      </c>
+      <c r="G70">
+        <v>-0.9878668417921683</v>
+      </c>
+      <c r="H70">
+        <v>0.9897904135984072</v>
+      </c>
+      <c r="I70">
+        <v>0.9684682570007386</v>
+      </c>
+      <c r="J70">
+        <v>0.9511914995461676</v>
+      </c>
+      <c r="K70">
+        <v>-0.7616457382481652</v>
+      </c>
+      <c r="R70">
+        <v>0.9686897548163058</v>
+      </c>
+      <c r="S70">
+        <v>-0.9040353281081432</v>
+      </c>
+      <c r="T70">
+        <v>0.9974989278389778</v>
+      </c>
+      <c r="U70">
+        <v>-0.9908415133567882</v>
+      </c>
+      <c r="W70">
+        <v>0.9919338582327942</v>
+      </c>
+      <c r="AA70">
+        <v>0.916993639445406</v>
+      </c>
+      <c r="AE70">
+        <v>0.4712114557896201</v>
+      </c>
+      <c r="AF70">
+        <v>-0.9912678389039167</v>
+      </c>
+      <c r="AL70">
+        <v>0.9999750158733439</v>
+      </c>
+      <c r="AM70">
+        <v>0.9998355080695042</v>
+      </c>
+      <c r="AO70">
+        <v>0.9997897945191928</v>
+      </c>
+      <c r="AP70">
+        <v>0.9998619045244884</v>
+      </c>
+    </row>
+    <row r="71" spans="1:42">
+      <c r="A71" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71">
+        <v>1.951342467353829e-11</v>
+      </c>
+      <c r="E71">
+        <v>1.942184788816537e-11</v>
+      </c>
+      <c r="F71">
+        <v>3.969955774539168e-11</v>
+      </c>
+      <c r="G71">
+        <v>4.48762627056379e-11</v>
+      </c>
+      <c r="H71">
+        <v>1.599633289713563e-11</v>
+      </c>
+      <c r="I71">
+        <v>1.325721776907109e-08</v>
+      </c>
+      <c r="J71">
+        <v>1.756312282390308e-07</v>
+      </c>
+      <c r="K71">
+        <v>0.001548955735996823</v>
+      </c>
+      <c r="R71">
+        <v>1.271428776920169e-08</v>
+      </c>
+      <c r="S71">
+        <v>9.143908633578894e-06</v>
+      </c>
+      <c r="T71">
+        <v>3.514961810733669e-15</v>
+      </c>
+      <c r="U71">
+        <v>8.35402477036174e-12</v>
+      </c>
+      <c r="W71">
+        <v>3.908126244635614e-12</v>
+      </c>
+      <c r="AA71">
+        <v>3.941199057535316e-06</v>
+      </c>
+      <c r="AE71">
+        <v>0.08897855711939968</v>
+      </c>
+      <c r="AF71">
+        <v>6.281770216418549e-12</v>
+      </c>
+      <c r="AL71">
+        <v>3.511185572510081e-27</v>
+      </c>
+      <c r="AM71">
+        <v>2.858949580611244e-22</v>
+      </c>
+      <c r="AO71">
+        <v>1.244974849575659e-21</v>
+      </c>
+      <c r="AP71">
+        <v>1.001014058100224e-22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:42">
+      <c r="A72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72">
+        <v>-0.9859941999253043</v>
+      </c>
+      <c r="E72">
+        <v>-0.9860275296653267</v>
+      </c>
+      <c r="F72">
+        <v>-0.9858800291012755</v>
+      </c>
+      <c r="G72">
+        <v>-0.9859031167630746</v>
+      </c>
+      <c r="H72">
+        <v>0.9880178250984888</v>
+      </c>
+      <c r="I72">
+        <v>0.9608185672107576</v>
+      </c>
+      <c r="J72">
+        <v>0.9480120425572464</v>
+      </c>
+      <c r="K72">
+        <v>-0.7533924373360167</v>
+      </c>
+      <c r="R72">
+        <v>0.9757027856516588</v>
+      </c>
+      <c r="S72">
+        <v>-0.9125923876733962</v>
+      </c>
+      <c r="T72">
+        <v>0.9962608628854529</v>
+      </c>
+      <c r="U72">
+        <v>-0.9939158974716161</v>
+      </c>
+      <c r="W72">
+        <v>0.985662929566978</v>
+      </c>
+      <c r="AA72">
+        <v>0.9304941181464945</v>
+      </c>
+      <c r="AE72">
+        <v>0.4832862118338865</v>
+      </c>
+      <c r="AF72">
+        <v>-0.9943669518297318</v>
+      </c>
+      <c r="AI72">
+        <v>0.9989076608052596</v>
+      </c>
+      <c r="AJ72">
+        <v>0.9987546813783927</v>
+      </c>
+      <c r="AL72">
+        <v>0.9988564419823361</v>
+      </c>
+      <c r="AM72">
+        <v>0.9978375056467137</v>
+      </c>
+      <c r="AO72">
+        <v>0.9988176579289904</v>
+      </c>
+      <c r="AP72">
+        <v>0.9988237119014846</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42">
+      <c r="A73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D73">
+        <v>1.057473099488116e-10</v>
+      </c>
+      <c r="E73">
+        <v>1.042538635081592e-10</v>
+      </c>
+      <c r="F73">
+        <v>1.109986664267046e-10</v>
+      </c>
+      <c r="G73">
+        <v>1.099196083366242e-10</v>
+      </c>
+      <c r="H73">
+        <v>4.164171661261955e-11</v>
+      </c>
+      <c r="I73">
+        <v>4.799845682712483e-08</v>
+      </c>
+      <c r="J73">
+        <v>2.546988448638589e-07</v>
+      </c>
+      <c r="K73">
+        <v>0.001863217494839458</v>
+      </c>
+      <c r="R73">
+        <v>2.819101097496015e-09</v>
+      </c>
+      <c r="S73">
+        <v>5.321310166735277e-06</v>
+      </c>
+      <c r="T73">
+        <v>3.914155081139688e-14</v>
+      </c>
+      <c r="U73">
+        <v>7.22773650093428e-13</v>
+      </c>
+      <c r="W73">
+        <v>1.215834015602825e-10</v>
+      </c>
+      <c r="AA73">
+        <v>1.399715583819092e-06</v>
+      </c>
+      <c r="AE73">
+        <v>0.08000093320006521</v>
+      </c>
+      <c r="AF73">
+        <v>4.557269272448424e-13</v>
+      </c>
+      <c r="AI73">
+        <v>2.446923076157055e-17</v>
+      </c>
+      <c r="AJ73">
+        <v>5.370511800297969e-17</v>
+      </c>
+      <c r="AL73">
+        <v>3.220896329094655e-17</v>
+      </c>
+      <c r="AM73">
+        <v>1.469631832337003e-15</v>
+      </c>
+      <c r="AO73">
+        <v>3.934144224477906e-17</v>
+      </c>
+      <c r="AP73">
+        <v>3.814865858801412e-17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:42">
+      <c r="A74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74">
+        <v>-0.9899475939680302</v>
+      </c>
+      <c r="E74">
+        <v>-0.9899583992405696</v>
+      </c>
+      <c r="F74">
+        <v>-0.988881759522653</v>
+      </c>
+      <c r="G74">
+        <v>-0.9886612221777987</v>
+      </c>
+      <c r="H74">
+        <v>0.9905929212447455</v>
+      </c>
+      <c r="I74">
+        <v>0.9667899440461124</v>
+      </c>
+      <c r="J74">
+        <v>0.9523497451533062</v>
+      </c>
+      <c r="K74">
+        <v>-0.7593130376050645</v>
+      </c>
+      <c r="R74">
+        <v>0.9697059628187154</v>
+      </c>
+      <c r="S74">
+        <v>-0.9069462649536608</v>
+      </c>
+      <c r="T74">
+        <v>0.997274877836576</v>
+      </c>
+      <c r="U74">
+        <v>-0.9916813409339317</v>
+      </c>
+      <c r="W74">
+        <v>0.9911908525266991</v>
+      </c>
+      <c r="AA74">
+        <v>0.9194333850370231</v>
+      </c>
+      <c r="AE74">
+        <v>0.4721367017048299</v>
+      </c>
+      <c r="AF74">
+        <v>-0.9920883197137257</v>
+      </c>
+      <c r="AM74">
+        <v>0.9997827202472123</v>
+      </c>
+      <c r="AO74">
+        <v>0.9999081604150999</v>
+      </c>
+      <c r="AP74">
+        <v>0.9999523468463614</v>
+      </c>
+    </row>
+    <row r="75" spans="1:42">
+      <c r="A75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75">
+        <v>1.457936249710317e-11</v>
+      </c>
+      <c r="E75">
+        <v>1.448592391382096e-11</v>
+      </c>
+      <c r="F75">
+        <v>2.662801191280067e-11</v>
+      </c>
+      <c r="G75">
+        <v>2.99442671857318e-11</v>
+      </c>
+      <c r="H75">
+        <v>9.805053010813529e-12</v>
+      </c>
+      <c r="I75">
+        <v>1.803018537841978e-08</v>
+      </c>
+      <c r="J75">
+        <v>1.524470328569609e-07</v>
+      </c>
+      <c r="K75">
+        <v>0.001633142681275159</v>
+      </c>
+      <c r="R75">
+        <v>1.045378177484962e-08</v>
+      </c>
+      <c r="S75">
+        <v>7.650315314065646e-06</v>
+      </c>
+      <c r="T75">
+        <v>5.878552630658552e-15</v>
+      </c>
+      <c r="U75">
+        <v>4.699565140574364e-12</v>
+      </c>
+      <c r="W75">
+        <v>6.62038125640034e-12</v>
+      </c>
+      <c r="AA75">
+        <v>3.313113856395838e-06</v>
+      </c>
+      <c r="AE75">
+        <v>0.08826682182911472</v>
+      </c>
+      <c r="AF75">
+        <v>3.481208640277072e-12</v>
+      </c>
+      <c r="AM75">
+        <v>1.518466909495662e-21</v>
+      </c>
+      <c r="AO75">
+        <v>8.661358198779851e-24</v>
+      </c>
+      <c r="AP75">
+        <v>1.690431325068317e-25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42">
+      <c r="A76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76">
+        <v>-0.9894304220766191</v>
+      </c>
+      <c r="E76">
+        <v>-0.9894320726328487</v>
+      </c>
+      <c r="F76">
+        <v>-0.9879516987063141</v>
+      </c>
+      <c r="G76">
+        <v>-0.9876330268292112</v>
+      </c>
+      <c r="H76">
+        <v>0.9896080311820642</v>
+      </c>
+      <c r="I76">
+        <v>0.9701284261628657</v>
+      </c>
+      <c r="J76">
+        <v>0.9514612626909961</v>
+      </c>
+      <c r="K76">
+        <v>-0.7606098828035478</v>
+      </c>
+      <c r="R76">
+        <v>0.9663341302267922</v>
+      </c>
+      <c r="S76">
+        <v>-0.9009944253186344</v>
+      </c>
+      <c r="T76">
+        <v>0.9973295430417662</v>
+      </c>
+      <c r="U76">
+        <v>-0.9895800571586665</v>
+      </c>
+      <c r="W76">
+        <v>0.9931109749979504</v>
+      </c>
+      <c r="AA76">
+        <v>0.9130129272018047</v>
+      </c>
+      <c r="AE76">
+        <v>0.4636425010089285</v>
+      </c>
+      <c r="AF76">
+        <v>-0.9900066599322978</v>
+      </c>
+      <c r="AO76">
+        <v>0.9995734822914918</v>
+      </c>
+      <c r="AP76">
+        <v>0.9996594125578994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:42">
+      <c r="A77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77">
+        <v>1.96780028204554e-11</v>
+      </c>
+      <c r="E77">
+        <v>1.965964221724579e-11</v>
+      </c>
+      <c r="F77">
+        <v>4.303361027327254e-11</v>
+      </c>
+      <c r="G77">
+        <v>5.029622419925129e-11</v>
+      </c>
+      <c r="H77">
+        <v>1.77823080797899e-11</v>
+      </c>
+      <c r="I77">
+        <v>9.617827547748903e-09</v>
+      </c>
+      <c r="J77">
+        <v>1.699870063064374e-07</v>
+      </c>
+      <c r="K77">
+        <v>0.001585902752358355</v>
+      </c>
+      <c r="R77">
+        <v>1.954752387507208e-08</v>
+      </c>
+      <c r="S77">
+        <v>1.095164756519773e-05</v>
+      </c>
+      <c r="T77">
+        <v>5.206177582171606e-15</v>
+      </c>
+      <c r="U77">
+        <v>1.807036813261256e-11</v>
+      </c>
+      <c r="W77">
+        <v>1.520613119620131e-12</v>
+      </c>
+      <c r="AA77">
+        <v>5.17435845518047e-06</v>
+      </c>
+      <c r="AE77">
+        <v>0.09495198867860351</v>
+      </c>
+      <c r="AF77">
+        <v>1.407464942942328e-11</v>
+      </c>
+      <c r="AO77">
+        <v>8.683952454295854e-20</v>
+      </c>
+      <c r="AP77">
+        <v>2.251888071014392e-20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:42">
+      <c r="A78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78">
+        <v>0.959480118776653</v>
+      </c>
+      <c r="C78">
+        <v>0.9594780834974642</v>
+      </c>
+      <c r="D78">
+        <v>0.9849988013050933</v>
+      </c>
+      <c r="E78">
+        <v>0.9850312456970072</v>
+      </c>
+      <c r="F78">
+        <v>0.9847829673661687</v>
+      </c>
+      <c r="G78">
+        <v>0.9847972314732747</v>
+      </c>
+      <c r="H78">
+        <v>-0.9867312328305498</v>
+      </c>
+      <c r="I78">
+        <v>-0.9624036225800672</v>
+      </c>
+      <c r="J78">
+        <v>-0.9459624293158658</v>
+      </c>
+      <c r="K78">
+        <v>0.7566638797419026</v>
+      </c>
+      <c r="L78">
+        <v>-0.977230272094887</v>
+      </c>
+      <c r="M78">
+        <v>0.623154655701638</v>
+      </c>
+      <c r="N78">
+        <v>-0.9608127575326849</v>
+      </c>
+      <c r="O78">
+        <v>-0.9875698512058718</v>
+      </c>
+      <c r="P78">
+        <v>-0.9823914259031068</v>
+      </c>
+      <c r="Q78">
+        <v>-0.9969788831175512</v>
+      </c>
+      <c r="R78">
+        <v>-0.9748109534248418</v>
+      </c>
+      <c r="S78">
+        <v>0.9093919497354881</v>
+      </c>
+      <c r="T78">
+        <v>-0.9964738942784911</v>
+      </c>
+      <c r="U78">
+        <v>0.9929925705172158</v>
+      </c>
+      <c r="W78">
+        <v>-0.9861128466603571</v>
+      </c>
+      <c r="X78">
+        <v>-0.8580719153067716</v>
+      </c>
+      <c r="Y78">
+        <v>-0.8265739356038668</v>
+      </c>
+      <c r="Z78">
+        <v>0.9598803932129414</v>
+      </c>
+      <c r="AA78">
+        <v>-0.928351690723496</v>
+      </c>
+      <c r="AB78">
+        <v>0.9544358849848328</v>
+      </c>
+      <c r="AC78">
+        <v>-0.9983719607310814</v>
+      </c>
+      <c r="AD78">
+        <v>-0.9984504021705686</v>
+      </c>
+      <c r="AE78">
+        <v>-0.4845250417643898</v>
+      </c>
+      <c r="AF78">
+        <v>0.9934748721558799</v>
+      </c>
+      <c r="AG78">
+        <v>-0.9980973264344565</v>
+      </c>
+      <c r="AH78">
+        <v>0.9998878017909363</v>
+      </c>
+      <c r="AI78">
+        <v>-0.9986986888492786</v>
+      </c>
+      <c r="AJ78">
+        <v>-0.9986550937541825</v>
+      </c>
+      <c r="AK78">
+        <v>-0.9999577873745532</v>
+      </c>
+      <c r="AL78">
+        <v>-0.9987017545695772</v>
+      </c>
+      <c r="AM78">
+        <v>-0.9976960832415945</v>
+      </c>
+      <c r="AO78">
+        <v>-0.9985477628160937</v>
+      </c>
+      <c r="AP78">
+        <v>-0.9985847377468022</v>
+      </c>
+    </row>
+    <row r="79" spans="1:42">
+      <c r="A79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79">
+        <v>5.854489185260111e-08</v>
+      </c>
+      <c r="C79">
+        <v>5.856227849790622e-08</v>
+      </c>
+      <c r="D79">
+        <v>1.593110571530366e-10</v>
+      </c>
+      <c r="E79">
+        <v>1.572658660541619e-10</v>
+      </c>
+      <c r="F79">
+        <v>1.734873888913773e-10</v>
+      </c>
+      <c r="G79">
+        <v>1.725192381692418e-10</v>
+      </c>
+      <c r="H79">
+        <v>7.657637970130729e-11</v>
+      </c>
+      <c r="I79">
+        <v>3.75940436052111e-08</v>
+      </c>
+      <c r="J79">
+        <v>3.197698128349341e-07</v>
+      </c>
+      <c r="K79">
+        <v>0.001733117553028741</v>
+      </c>
+      <c r="L79">
+        <v>1.915814960620774e-09</v>
+      </c>
+      <c r="M79">
+        <v>0.01727593577673672</v>
+      </c>
+      <c r="N79">
+        <v>4.80405674563021e-08</v>
+      </c>
+      <c r="O79">
+        <v>5.185059625454146e-11</v>
+      </c>
+      <c r="P79">
+        <v>4.143746128140315e-10</v>
+      </c>
+      <c r="Q79">
+        <v>1.090646347498549e-14</v>
+      </c>
+      <c r="R79">
+        <v>3.493043663428698e-09</v>
+      </c>
+      <c r="S79">
+        <v>6.555984969528227e-06</v>
+      </c>
+      <c r="T79">
+        <v>2.754103109362122e-14</v>
+      </c>
+      <c r="U79">
+        <v>1.683891449354149e-12</v>
+      </c>
+      <c r="W79">
+        <v>1.005106778217956e-10</v>
+      </c>
+      <c r="X79">
+        <v>8.630095255827593e-05</v>
+      </c>
+      <c r="Y79">
+        <v>0.0002673385437485675</v>
+      </c>
+      <c r="Z79">
+        <v>5.520755620588729e-08</v>
+      </c>
+      <c r="AA79">
+        <v>1.67145885483231e-06</v>
+      </c>
+      <c r="AB79">
+        <v>1.170692375498855e-07</v>
+      </c>
+      <c r="AC79">
+        <v>2.678956519045542e-16</v>
+      </c>
+      <c r="AD79">
+        <v>1.992339982844914e-16</v>
+      </c>
+      <c r="AE79">
+        <v>0.07911748210785188</v>
+      </c>
+      <c r="AF79">
+        <v>1.098868859660224e-12</v>
+      </c>
+      <c r="AG79">
+        <v>6.821915798195649e-16</v>
+      </c>
+      <c r="AH79">
+        <v>2.879407474904188e-23</v>
+      </c>
+      <c r="AI79">
+        <v>6.991454799641939e-17</v>
+      </c>
+      <c r="AJ79">
+        <v>8.519068647812902e-17</v>
+      </c>
+      <c r="AK79">
+        <v>8.167833914408748e-26</v>
+      </c>
+      <c r="AL79">
+        <v>6.893254569255776e-17</v>
+      </c>
+      <c r="AM79">
+        <v>2.148560724493101e-15</v>
+      </c>
+      <c r="AO79">
+        <v>1.350098421525408e-16</v>
+      </c>
+      <c r="AP79">
+        <v>1.156634349904766e-16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:42">
+      <c r="A80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80">
+        <v>-0.9909887741994783</v>
+      </c>
+      <c r="E80">
+        <v>-0.9910034497015591</v>
+      </c>
+      <c r="F80">
+        <v>-0.9902444824579869</v>
+      </c>
+      <c r="G80">
+        <v>-0.9900643420538581</v>
+      </c>
+      <c r="H80">
+        <v>0.9921312256582722</v>
+      </c>
+      <c r="I80">
+        <v>0.9634719949657089</v>
+      </c>
+      <c r="J80">
+        <v>0.95484525503853</v>
+      </c>
+      <c r="K80">
+        <v>-0.7540610378364485</v>
+      </c>
+      <c r="R80">
+        <v>0.9714666391458066</v>
+      </c>
+      <c r="S80">
+        <v>-0.9123300349334181</v>
+      </c>
+      <c r="T80">
+        <v>0.9965859089904205</v>
+      </c>
+      <c r="U80">
+        <v>-0.9931014042220334</v>
+      </c>
+      <c r="W80">
+        <v>0.9897367271040016</v>
+      </c>
+      <c r="AA80">
+        <v>0.9236284105279071</v>
+      </c>
+      <c r="AE80">
+        <v>0.4729811019723787</v>
+      </c>
+      <c r="AF80">
+        <v>-0.9934582451120436</v>
+      </c>
+      <c r="AP80">
+        <v>0.999992168436412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:42">
+      <c r="A81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81">
+        <v>7.582182438898849e-12</v>
+      </c>
+      <c r="E81">
+        <v>7.508631252815636e-12</v>
+      </c>
+      <c r="F81">
+        <v>1.218702379682843e-11</v>
+      </c>
+      <c r="G81">
+        <v>1.359587832433818e-11</v>
+      </c>
+      <c r="H81">
+        <v>3.369770145214737e-12</v>
+      </c>
+      <c r="I81">
+        <v>3.169623525400483e-08</v>
+      </c>
+      <c r="J81">
+        <v>1.109975473082622e-07</v>
+      </c>
+      <c r="K81">
+        <v>0.00183601819749054</v>
+      </c>
+      <c r="R81">
+        <v>7.326655018521303e-09</v>
+      </c>
+      <c r="S81">
+        <v>5.414710322576278e-06</v>
+      </c>
+      <c r="T81">
+        <v>2.269672363029434e-14</v>
+      </c>
+      <c r="U81">
+        <v>1.533301026114478e-12</v>
+      </c>
+      <c r="W81">
+        <v>1.650580223291144e-11</v>
+      </c>
+      <c r="AA81">
+        <v>2.426187035801238e-06</v>
+      </c>
+      <c r="AE81">
+        <v>0.08762075854680883</v>
+      </c>
+      <c r="AF81">
+        <v>1.115736929798833e-12</v>
+      </c>
+      <c r="AP81">
+        <v>3.331007265783041e-30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:42">
+      <c r="A82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82">
+        <v>-0.9907661830276282</v>
+      </c>
+      <c r="E82">
+        <v>-0.9907794966666831</v>
+      </c>
+      <c r="F82">
+        <v>-0.9898609923751067</v>
+      </c>
+      <c r="G82">
+        <v>-0.98966684794771</v>
+      </c>
+      <c r="H82">
+        <v>0.9917389808485464</v>
+      </c>
+      <c r="I82">
+        <v>0.9644498872933908</v>
+      </c>
+      <c r="J82">
+        <v>0.9542711221713074</v>
+      </c>
+      <c r="K82">
+        <v>-0.7553572923251135</v>
+      </c>
+      <c r="R82">
+        <v>0.970972337483305</v>
+      </c>
+      <c r="S82">
+        <v>-0.9107740287310092</v>
+      </c>
+      <c r="T82">
+        <v>0.9967630755231449</v>
+      </c>
+      <c r="U82">
+        <v>-0.9926991141567985</v>
+      </c>
+      <c r="W82">
+        <v>0.9901980974287805</v>
+      </c>
+      <c r="AA82">
+        <v>0.9223465460171179</v>
+      </c>
+      <c r="AE82">
+        <v>0.472463931154425</v>
+      </c>
+      <c r="AF82">
+        <v>-0.9930664311717549</v>
+      </c>
+    </row>
+    <row r="83" spans="1:42">
+      <c r="A83" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D83">
+        <v>8.773455412867943e-12</v>
+      </c>
+      <c r="E83">
+        <v>8.698078278846506e-12</v>
+      </c>
+      <c r="F83">
+        <v>1.534652972120323e-11</v>
+      </c>
+      <c r="G83">
+        <v>1.718909458692411e-11</v>
+      </c>
+      <c r="H83">
+        <v>4.508097618704838e-12</v>
+      </c>
+      <c r="I83">
+        <v>2.699112274136809e-08</v>
+      </c>
+      <c r="J83">
+        <v>1.19589291074252e-07</v>
+      </c>
+      <c r="K83">
+        <v>0.001784183252193836</v>
+      </c>
+      <c r="R83">
+        <v>8.113258179298909e-09</v>
+      </c>
+      <c r="S83">
+        <v>5.996778421289946e-06</v>
+      </c>
+      <c r="T83">
+        <v>1.649199134125653e-14</v>
+      </c>
+      <c r="U83">
+        <v>2.152490054034616e-12</v>
+      </c>
+      <c r="W83">
+        <v>1.253760920150459e-11</v>
+      </c>
+      <c r="AA83">
+        <v>2.673424783562071e-06</v>
+      </c>
+      <c r="AE83">
+        <v>0.08801605973993901</v>
+      </c>
+      <c r="AF83">
+        <v>1.580416617213598e-12</v>
       </c>
     </row>
   </sheetData>
